--- a/assets/bls_cpsaat09_2002_to_2015.xlsx
+++ b/assets/bls_cpsaat09_2002_to_2015.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alasw\Documents\UMich\MADS\Courses\SIADS - 593 Milestone 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alasw\Documents\UMich\MADS\Courses\SIADS - 593 Milestone 1\Project\Project\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EDE004-CC40-4BAC-92AD-F9AAFEFF0B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BAA081-D4CE-4062-8B5C-BCBE8AB744B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{477158E9-53BF-4D82-B12D-76B01EEAC891}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{477158E9-53BF-4D82-B12D-76B01EEAC891}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="25" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="43">
   <si>
     <t>Occupation</t>
   </si>
@@ -855,7 +855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15590B1-E7AA-4E93-920C-31204111F21D}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A5:A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -935,40 +937,39 @@
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E4" s="1">
         <v>2014</v>
       </c>
-      <c r="E4" s="1">
-        <v>2013</v>
-      </c>
       <c r="F4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G4" s="1">
         <v>2014</v>
       </c>
-      <c r="G4" s="1">
-        <v>2013</v>
-      </c>
       <c r="H4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I4" s="1">
         <v>2014</v>
       </c>
-      <c r="I4" s="1">
-        <v>2013</v>
-      </c>
       <c r="J4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K4" s="1">
         <v>2014</v>
       </c>
-      <c r="K4" s="1">
-        <v>2013</v>
-      </c>
       <c r="L4" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1">
-      <c r="A5" t="str">
-        <f>IFERROR(VLOOKUP(B5,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L3</v>
+      <c r="A5" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -1005,6 +1006,9 @@
       </c>
     </row>
     <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1018,9 +1022,8 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" t="str">
-        <f>IFERROR(VLOOKUP(B7,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A7" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>7</v>
@@ -1057,9 +1060,8 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" t="str">
-        <f>IFERROR(VLOOKUP(B8,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L1</v>
+      <c r="A8" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>8</v>
@@ -1096,9 +1098,8 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" t="str">
-        <f>IFERROR(VLOOKUP(B9,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A9" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>9</v>
@@ -1135,9 +1136,8 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" t="str">
-        <f>IFERROR(VLOOKUP(B10,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A10" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>10</v>
@@ -1174,9 +1174,8 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" t="str">
-        <f>IFERROR(VLOOKUP(B11,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L1</v>
+      <c r="A11" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>11</v>
@@ -1213,9 +1212,8 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" t="str">
-        <f>IFERROR(VLOOKUP(B12,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A12" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>12</v>
@@ -1252,9 +1250,8 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" t="str">
-        <f>IFERROR(VLOOKUP(B13,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A13" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>13</v>
@@ -1291,9 +1288,8 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" t="str">
-        <f>IFERROR(VLOOKUP(B14,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A14" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>14</v>
@@ -1330,9 +1326,8 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" t="str">
-        <f>IFERROR(VLOOKUP(B15,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A15" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>15</v>
@@ -1369,9 +1364,8 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" t="str">
-        <f>IFERROR(VLOOKUP(B16,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A16" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>16</v>
@@ -1408,9 +1402,8 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" t="str">
-        <f>IFERROR(VLOOKUP(B17,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A17" t="s">
+        <v>39</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>17</v>
@@ -1447,9 +1440,8 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" t="str">
-        <f>IFERROR(VLOOKUP(B18,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A18" t="s">
+        <v>39</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>18</v>
@@ -1486,9 +1478,8 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" t="str">
-        <f>IFERROR(VLOOKUP(B19,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A19" t="s">
+        <v>39</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>19</v>
@@ -1525,15 +1516,13 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" t="str">
-        <f>IFERROR(VLOOKUP(B20,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" t="str">
-        <f>IFERROR(VLOOKUP(B21,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A21" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>20</v>
@@ -1570,9 +1559,8 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" t="str">
-        <f>IFERROR(VLOOKUP(B22,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A22" t="s">
+        <v>39</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>21</v>
@@ -1609,9 +1597,8 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" t="str">
-        <f>IFERROR(VLOOKUP(B23,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A23" t="s">
+        <v>39</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>22</v>
@@ -1648,9 +1635,8 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" t="str">
-        <f>IFERROR(VLOOKUP(B24,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A24" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>23</v>
@@ -1687,9 +1673,8 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" t="str">
-        <f>IFERROR(VLOOKUP(B25,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A25" t="s">
+        <v>39</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>24</v>
@@ -1726,9 +1711,8 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" t="str">
-        <f>IFERROR(VLOOKUP(B26,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A26" t="s">
+        <v>39</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>25</v>
@@ -1765,15 +1749,13 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" t="str">
-        <f>IFERROR(VLOOKUP(B27,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" t="str">
-        <f>IFERROR(VLOOKUP(B28,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A28" t="s">
+        <v>40</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>26</v>
@@ -1810,9 +1792,8 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" t="str">
-        <f>IFERROR(VLOOKUP(B29,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A29" t="s">
+        <v>39</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>27</v>
@@ -1849,9 +1830,8 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" t="str">
-        <f>IFERROR(VLOOKUP(B30,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A30" t="s">
+        <v>39</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>28</v>
@@ -1888,15 +1868,13 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" t="str">
-        <f>IFERROR(VLOOKUP(B31,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A31" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" t="str">
-        <f>IFERROR(VLOOKUP(B32,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A32" t="s">
+        <v>40</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>29</v>
@@ -1933,9 +1911,8 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" t="str">
-        <f>IFERROR(VLOOKUP(B33,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A33" t="s">
+        <v>39</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>30</v>
@@ -1972,9 +1949,8 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" t="str">
-        <f>IFERROR(VLOOKUP(B34,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A34" t="s">
+        <v>39</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>31</v>
@@ -2011,9 +1987,8 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" t="str">
-        <f>IFERROR(VLOOKUP(B35,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A35" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>32</v>
@@ -2050,15 +2025,13 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" t="str">
-        <f>IFERROR(VLOOKUP(B36,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" t="str">
-        <f>IFERROR(VLOOKUP(B37,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A37" t="s">
+        <v>40</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>33</v>
@@ -2095,9 +2068,8 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" t="str">
-        <f>IFERROR(VLOOKUP(B38,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A38" t="s">
+        <v>39</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>34</v>
@@ -2134,9 +2106,8 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" t="str">
-        <f>IFERROR(VLOOKUP(B39,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>35</v>
@@ -2212,9 +2183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3DFC74-8C32-4E4D-8E4A-1D8528859161}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -3510,9 +3479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC5AE72-D41F-462E-BDC1-A48BD02BD8E0}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -4809,7 +4776,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5583,39 +5550,39 @@
       <c r="B29" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C29" s="11">
+        <v>7254</v>
+      </c>
+      <c r="D29" s="11">
+        <v>7279</v>
+      </c>
+      <c r="E29" s="11">
+        <v>3151</v>
+      </c>
+      <c r="F29" s="11">
+        <v>3196</v>
+      </c>
+      <c r="G29" s="11">
+        <v>2483</v>
+      </c>
+      <c r="H29" s="11">
+        <v>2506</v>
+      </c>
+      <c r="I29" s="11">
+        <v>4104</v>
+      </c>
+      <c r="J29" s="11">
+        <v>4084</v>
+      </c>
+      <c r="K29" s="11">
+        <v>3336</v>
+      </c>
+      <c r="L29" s="11">
+        <v>3323</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="15" thickBot="1">
       <c r="B30" s="8"/>
-      <c r="C30" s="11">
-        <v>7254</v>
-      </c>
-      <c r="D30" s="11">
-        <v>7279</v>
-      </c>
-      <c r="E30" s="11">
-        <v>3151</v>
-      </c>
-      <c r="F30" s="11">
-        <v>3196</v>
-      </c>
-      <c r="G30" s="11">
-        <v>2483</v>
-      </c>
-      <c r="H30" s="11">
-        <v>2506</v>
-      </c>
-      <c r="I30" s="11">
-        <v>4104</v>
-      </c>
-      <c r="J30" s="11">
-        <v>4084</v>
-      </c>
-      <c r="K30" s="11">
-        <v>3336</v>
-      </c>
-      <c r="L30" s="11">
-        <v>3323</v>
-      </c>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1"/>
     <row r="32" spans="1:12" ht="15" thickBot="1">
@@ -6102,6 +6069,7 @@
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7406,7 +7374,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" activeCellId="4" sqref="A6:XFD6 A20:XFD20 A27:XFD27 A31:XFD31 A36:XFD36"/>
+      <selection activeCell="A39" sqref="A5:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7518,9 +7486,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1">
-      <c r="A5" t="str">
-        <f>IFERROR(VLOOKUP(B5,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L3</v>
+      <c r="A5" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -7557,9 +7524,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1">
-      <c r="A6" t="str">
-        <f>IFERROR(VLOOKUP(B6,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A6" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
@@ -7574,9 +7540,8 @@
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A7" t="str">
-        <f>IFERROR(VLOOKUP(B7,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A7" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -7613,9 +7578,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A8" t="str">
-        <f>IFERROR(VLOOKUP(B8,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L1</v>
+      <c r="A8" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -7652,9 +7616,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1">
-      <c r="A9" t="str">
-        <f>IFERROR(VLOOKUP(B9,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A9" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
@@ -7691,9 +7654,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A10" t="str">
-        <f>IFERROR(VLOOKUP(B10,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A10" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>10</v>
@@ -7730,9 +7692,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1">
-      <c r="A11" t="str">
-        <f>IFERROR(VLOOKUP(B11,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L1</v>
+      <c r="A11" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
@@ -7769,9 +7730,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="A12" t="str">
-        <f>IFERROR(VLOOKUP(B12,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A12" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>12</v>
@@ -7808,9 +7768,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="A13" t="str">
-        <f>IFERROR(VLOOKUP(B13,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A13" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -7847,9 +7806,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A14" t="str">
-        <f>IFERROR(VLOOKUP(B14,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A14" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>14</v>
@@ -7886,9 +7844,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A15" t="str">
-        <f>IFERROR(VLOOKUP(B15,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A15" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
@@ -7925,9 +7882,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
-      <c r="A16" t="str">
-        <f>IFERROR(VLOOKUP(B16,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A16" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>16</v>
@@ -7964,9 +7920,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A17" t="str">
-        <f>IFERROR(VLOOKUP(B17,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A17" t="s">
+        <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>17</v>
@@ -8003,9 +7958,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A18" t="str">
-        <f>IFERROR(VLOOKUP(B18,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A18" t="s">
+        <v>39</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>18</v>
@@ -8042,9 +7996,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A19" t="str">
-        <f>IFERROR(VLOOKUP(B19,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A19" t="s">
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>19</v>
@@ -8081,9 +8034,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1">
-      <c r="A20" t="str">
-        <f>IFERROR(VLOOKUP(B20,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A20" t="s">
+        <v>36</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
@@ -8098,9 +8050,8 @@
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1">
-      <c r="A21" t="str">
-        <f>IFERROR(VLOOKUP(B21,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A21" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -8137,9 +8088,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1">
-      <c r="A22" t="str">
-        <f>IFERROR(VLOOKUP(B22,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A22" t="s">
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -8176,9 +8126,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1">
-      <c r="A23" t="str">
-        <f>IFERROR(VLOOKUP(B23,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A23" t="s">
+        <v>39</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>22</v>
@@ -8215,9 +8164,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A24" t="str">
-        <f>IFERROR(VLOOKUP(B24,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A24" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -8254,9 +8202,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A25" t="str">
-        <f>IFERROR(VLOOKUP(B25,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A25" t="s">
+        <v>39</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>24</v>
@@ -8293,9 +8240,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1">
-      <c r="A26" t="str">
-        <f>IFERROR(VLOOKUP(B26,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A26" t="s">
+        <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
@@ -8332,9 +8278,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1">
-      <c r="A27" t="str">
-        <f>IFERROR(VLOOKUP(B27,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A27" t="s">
+        <v>36</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
@@ -8349,9 +8294,8 @@
       <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1">
-      <c r="A28" t="str">
-        <f>IFERROR(VLOOKUP(B28,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A28" t="s">
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
@@ -8388,9 +8332,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" thickBot="1">
-      <c r="A29" t="str">
-        <f>IFERROR(VLOOKUP(B29,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A29" t="s">
+        <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>27</v>
@@ -8427,9 +8370,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A30" t="str">
-        <f>IFERROR(VLOOKUP(B30,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A30" t="s">
+        <v>39</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>28</v>
@@ -8466,9 +8408,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1">
-      <c r="A31" t="str">
-        <f>IFERROR(VLOOKUP(B31,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A31" t="s">
+        <v>36</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
@@ -8483,9 +8424,8 @@
       <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A32" t="str">
-        <f>IFERROR(VLOOKUP(B32,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A32" t="s">
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
@@ -8522,9 +8462,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" thickBot="1">
-      <c r="A33" t="str">
-        <f>IFERROR(VLOOKUP(B33,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A33" t="s">
+        <v>39</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
@@ -8561,9 +8500,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1">
-      <c r="A34" t="str">
-        <f>IFERROR(VLOOKUP(B34,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A34" t="s">
+        <v>39</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>31</v>
@@ -8600,9 +8538,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A35" t="str">
-        <f>IFERROR(VLOOKUP(B35,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A35" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>32</v>
@@ -8639,9 +8576,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1">
-      <c r="A36" t="str">
-        <f>IFERROR(VLOOKUP(B36,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
@@ -8656,9 +8592,8 @@
       <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A37" t="str">
-        <f>IFERROR(VLOOKUP(B37,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A37" t="s">
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>33</v>
@@ -8695,9 +8630,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1">
-      <c r="A38" t="str">
-        <f>IFERROR(VLOOKUP(B38,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A38" t="s">
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>34</v>
@@ -8734,9 +8668,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A39" t="str">
-        <f>IFERROR(VLOOKUP(B39,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>35</v>
@@ -8774,10 +8707,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B27:L27"/>
     <mergeCell ref="B31:L31"/>
     <mergeCell ref="B36:L36"/>
     <mergeCell ref="I2:J2"/>
@@ -8793,6 +8722,10 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B27:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8917,9 +8850,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1">
-      <c r="A5" t="str">
-        <f>IFERROR(VLOOKUP(B5,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L3</v>
+      <c r="A5" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -8956,9 +8888,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1">
-      <c r="A6" t="str">
-        <f>IFERROR(VLOOKUP(B6,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A6" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
@@ -8973,9 +8904,8 @@
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" t="str">
-        <f>IFERROR(VLOOKUP(B7,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A7" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -9012,9 +8942,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1">
-      <c r="A8" t="str">
-        <f>IFERROR(VLOOKUP(B8,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L1</v>
+      <c r="A8" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -9051,9 +8980,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1">
-      <c r="A9" t="str">
-        <f>IFERROR(VLOOKUP(B9,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A9" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
@@ -9090,9 +9018,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1">
-      <c r="A10" t="str">
-        <f>IFERROR(VLOOKUP(B10,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A10" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>10</v>
@@ -9129,9 +9056,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1">
-      <c r="A11" t="str">
-        <f>IFERROR(VLOOKUP(B11,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L1</v>
+      <c r="A11" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
@@ -9168,9 +9094,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="A12" t="str">
-        <f>IFERROR(VLOOKUP(B12,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A12" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>12</v>
@@ -9207,9 +9132,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="A13" t="str">
-        <f>IFERROR(VLOOKUP(B13,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A13" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -9246,9 +9170,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" t="str">
-        <f>IFERROR(VLOOKUP(B14,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A14" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>14</v>
@@ -9285,9 +9208,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="A15" t="str">
-        <f>IFERROR(VLOOKUP(B15,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A15" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
@@ -9324,9 +9246,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
-      <c r="A16" t="str">
-        <f>IFERROR(VLOOKUP(B16,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A16" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>16</v>
@@ -9363,9 +9284,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1">
-      <c r="A17" t="str">
-        <f>IFERROR(VLOOKUP(B17,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A17" t="s">
+        <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>17</v>
@@ -9402,9 +9322,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1">
-      <c r="A18" t="str">
-        <f>IFERROR(VLOOKUP(B18,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A18" t="s">
+        <v>39</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>18</v>
@@ -9441,9 +9360,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1">
-      <c r="A19" t="str">
-        <f>IFERROR(VLOOKUP(B19,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A19" t="s">
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>19</v>
@@ -9480,9 +9398,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1">
-      <c r="A20" t="str">
-        <f>IFERROR(VLOOKUP(B20,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A20" t="s">
+        <v>36</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
@@ -9497,9 +9414,8 @@
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1">
-      <c r="A21" t="str">
-        <f>IFERROR(VLOOKUP(B21,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A21" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -9536,9 +9452,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1">
-      <c r="A22" t="str">
-        <f>IFERROR(VLOOKUP(B22,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A22" t="s">
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -9575,9 +9490,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1">
-      <c r="A23" t="str">
-        <f>IFERROR(VLOOKUP(B23,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A23" t="s">
+        <v>39</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>22</v>
@@ -9614,9 +9528,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1">
-      <c r="A24" t="str">
-        <f>IFERROR(VLOOKUP(B24,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A24" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -9653,9 +9566,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" thickBot="1">
-      <c r="A25" t="str">
-        <f>IFERROR(VLOOKUP(B25,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A25" t="s">
+        <v>39</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>24</v>
@@ -9692,9 +9604,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1">
-      <c r="A26" t="str">
-        <f>IFERROR(VLOOKUP(B26,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A26" t="s">
+        <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
@@ -9731,9 +9642,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1">
-      <c r="A27" t="str">
-        <f>IFERROR(VLOOKUP(B27,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A27" t="s">
+        <v>36</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
@@ -9748,9 +9658,8 @@
       <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1">
-      <c r="A28" t="str">
-        <f>IFERROR(VLOOKUP(B28,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A28" t="s">
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
@@ -9787,9 +9696,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" thickBot="1">
-      <c r="A29" t="str">
-        <f>IFERROR(VLOOKUP(B29,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A29" t="s">
+        <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>27</v>
@@ -9826,9 +9734,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" thickBot="1">
-      <c r="A30" t="str">
-        <f>IFERROR(VLOOKUP(B30,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A30" t="s">
+        <v>39</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>28</v>
@@ -9865,9 +9772,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1">
-      <c r="A31" t="str">
-        <f>IFERROR(VLOOKUP(B31,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A31" t="s">
+        <v>36</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
@@ -9882,9 +9788,8 @@
       <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:12" ht="15" thickBot="1">
-      <c r="A32" t="str">
-        <f>IFERROR(VLOOKUP(B32,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A32" t="s">
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
@@ -9921,9 +9826,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" thickBot="1">
-      <c r="A33" t="str">
-        <f>IFERROR(VLOOKUP(B33,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A33" t="s">
+        <v>39</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
@@ -9960,9 +9864,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1">
-      <c r="A34" t="str">
-        <f>IFERROR(VLOOKUP(B34,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A34" t="s">
+        <v>39</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>31</v>
@@ -9999,9 +9902,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" thickBot="1">
-      <c r="A35" t="str">
-        <f>IFERROR(VLOOKUP(B35,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A35" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>32</v>
@@ -10038,9 +9940,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1">
-      <c r="A36" t="str">
-        <f>IFERROR(VLOOKUP(B36,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
@@ -10055,9 +9956,8 @@
       <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1">
-      <c r="A37" t="str">
-        <f>IFERROR(VLOOKUP(B37,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A37" t="s">
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>33</v>
@@ -10094,9 +9994,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1">
-      <c r="A38" t="str">
-        <f>IFERROR(VLOOKUP(B38,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A38" t="s">
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>34</v>
@@ -10133,9 +10032,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" thickBot="1">
-      <c r="A39" t="str">
-        <f>IFERROR(VLOOKUP(B39,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>35</v>
@@ -10172,9 +10070,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" thickBot="1">
-      <c r="A40" t="str">
-        <f>IFERROR(VLOOKUP(B40,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A40" t="s">
+        <v>36</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="34"/>
@@ -10190,8 +10087,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B27:L27"/>
@@ -10210,6 +10105,8 @@
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10220,7 +10117,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A39"/>
+      <selection activeCell="A39" sqref="A5:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10332,9 +10229,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1">
-      <c r="A5" t="str">
-        <f>IFERROR(VLOOKUP(B5,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L3</v>
+      <c r="A5" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -10371,9 +10267,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1">
-      <c r="A6" t="str">
-        <f>IFERROR(VLOOKUP(B6,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A6" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
@@ -10388,9 +10283,8 @@
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" t="str">
-        <f>IFERROR(VLOOKUP(B7,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A7" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -10427,9 +10321,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1">
-      <c r="A8" t="str">
-        <f>IFERROR(VLOOKUP(B8,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L1</v>
+      <c r="A8" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -10466,9 +10359,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1">
-      <c r="A9" t="str">
-        <f>IFERROR(VLOOKUP(B9,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A9" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
@@ -10505,9 +10397,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1">
-      <c r="A10" t="str">
-        <f>IFERROR(VLOOKUP(B10,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A10" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>10</v>
@@ -10544,9 +10435,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1">
-      <c r="A11" t="str">
-        <f>IFERROR(VLOOKUP(B11,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L1</v>
+      <c r="A11" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
@@ -10583,9 +10473,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="A12" t="str">
-        <f>IFERROR(VLOOKUP(B12,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A12" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>12</v>
@@ -10622,9 +10511,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="A13" t="str">
-        <f>IFERROR(VLOOKUP(B13,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A13" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -10661,9 +10549,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" t="str">
-        <f>IFERROR(VLOOKUP(B14,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A14" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>14</v>
@@ -10700,9 +10587,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="A15" t="str">
-        <f>IFERROR(VLOOKUP(B15,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A15" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
@@ -10739,9 +10625,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
-      <c r="A16" t="str">
-        <f>IFERROR(VLOOKUP(B16,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A16" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>16</v>
@@ -10778,9 +10663,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1">
-      <c r="A17" t="str">
-        <f>IFERROR(VLOOKUP(B17,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A17" t="s">
+        <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>17</v>
@@ -10817,9 +10701,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1">
-      <c r="A18" t="str">
-        <f>IFERROR(VLOOKUP(B18,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A18" t="s">
+        <v>39</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>18</v>
@@ -10856,9 +10739,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1">
-      <c r="A19" t="str">
-        <f>IFERROR(VLOOKUP(B19,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A19" t="s">
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>19</v>
@@ -10895,9 +10777,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1">
-      <c r="A20" t="str">
-        <f>IFERROR(VLOOKUP(B20,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A20" t="s">
+        <v>36</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
@@ -10912,9 +10793,8 @@
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1">
-      <c r="A21" t="str">
-        <f>IFERROR(VLOOKUP(B21,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A21" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -10951,9 +10831,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1">
-      <c r="A22" t="str">
-        <f>IFERROR(VLOOKUP(B22,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A22" t="s">
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -10990,9 +10869,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1">
-      <c r="A23" t="str">
-        <f>IFERROR(VLOOKUP(B23,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A23" t="s">
+        <v>39</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>22</v>
@@ -11029,9 +10907,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1">
-      <c r="A24" t="str">
-        <f>IFERROR(VLOOKUP(B24,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A24" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -11068,9 +10945,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" thickBot="1">
-      <c r="A25" t="str">
-        <f>IFERROR(VLOOKUP(B25,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A25" t="s">
+        <v>39</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>24</v>
@@ -11107,9 +10983,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1">
-      <c r="A26" t="str">
-        <f>IFERROR(VLOOKUP(B26,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A26" t="s">
+        <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
@@ -11146,9 +11021,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1">
-      <c r="A27" t="str">
-        <f>IFERROR(VLOOKUP(B27,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A27" t="s">
+        <v>36</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
@@ -11163,9 +11037,8 @@
       <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1">
-      <c r="A28" t="str">
-        <f>IFERROR(VLOOKUP(B28,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A28" t="s">
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
@@ -11202,9 +11075,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" thickBot="1">
-      <c r="A29" t="str">
-        <f>IFERROR(VLOOKUP(B29,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A29" t="s">
+        <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>27</v>
@@ -11241,9 +11113,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" thickBot="1">
-      <c r="A30" t="str">
-        <f>IFERROR(VLOOKUP(B30,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A30" t="s">
+        <v>39</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>28</v>
@@ -11280,9 +11151,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1">
-      <c r="A31" t="str">
-        <f>IFERROR(VLOOKUP(B31,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A31" t="s">
+        <v>36</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
@@ -11297,9 +11167,8 @@
       <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:12" ht="15" thickBot="1">
-      <c r="A32" t="str">
-        <f>IFERROR(VLOOKUP(B32,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A32" t="s">
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
@@ -11336,9 +11205,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" thickBot="1">
-      <c r="A33" t="str">
-        <f>IFERROR(VLOOKUP(B33,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A33" t="s">
+        <v>39</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
@@ -11375,9 +11243,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1">
-      <c r="A34" t="str">
-        <f>IFERROR(VLOOKUP(B34,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A34" t="s">
+        <v>39</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>31</v>
@@ -11414,9 +11281,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" thickBot="1">
-      <c r="A35" t="str">
-        <f>IFERROR(VLOOKUP(B35,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A35" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>32</v>
@@ -11453,9 +11319,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1">
-      <c r="A36" t="str">
-        <f>IFERROR(VLOOKUP(B36,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
@@ -11470,9 +11335,8 @@
       <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1">
-      <c r="A37" t="str">
-        <f>IFERROR(VLOOKUP(B37,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A37" t="s">
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>33</v>
@@ -11509,9 +11373,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1">
-      <c r="A38" t="str">
-        <f>IFERROR(VLOOKUP(B38,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A38" t="s">
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>34</v>
@@ -11548,9 +11411,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" thickBot="1">
-      <c r="A39" t="str">
-        <f>IFERROR(VLOOKUP(B39,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>35</v>
@@ -11588,10 +11450,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B27:L27"/>
     <mergeCell ref="B31:L31"/>
     <mergeCell ref="B36:L36"/>
     <mergeCell ref="I2:J2"/>
@@ -11607,6 +11465,10 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B27:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11617,7 +11479,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A5:A39"/>
+      <selection activeCell="A5" sqref="A5:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11729,9 +11591,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1">
-      <c r="A5" t="str">
-        <f>IFERROR(VLOOKUP(B5,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L3</v>
+      <c r="A5" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -11768,9 +11629,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1">
-      <c r="A6" t="str">
-        <f>IFERROR(VLOOKUP(B6,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A6" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
@@ -11785,9 +11645,8 @@
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" t="str">
-        <f>IFERROR(VLOOKUP(B7,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A7" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -11824,9 +11683,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A8" t="str">
-        <f>IFERROR(VLOOKUP(B8,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L1</v>
+      <c r="A8" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -11863,9 +11721,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1">
-      <c r="A9" t="str">
-        <f>IFERROR(VLOOKUP(B9,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A9" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
@@ -11902,9 +11759,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1">
-      <c r="A10" t="str">
-        <f>IFERROR(VLOOKUP(B10,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A10" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>10</v>
@@ -11941,9 +11797,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1">
-      <c r="A11" t="str">
-        <f>IFERROR(VLOOKUP(B11,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L1</v>
+      <c r="A11" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
@@ -11980,9 +11835,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="A12" t="str">
-        <f>IFERROR(VLOOKUP(B12,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A12" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>12</v>
@@ -12019,9 +11873,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="A13" t="str">
-        <f>IFERROR(VLOOKUP(B13,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A13" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -12058,9 +11911,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" t="str">
-        <f>IFERROR(VLOOKUP(B14,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A14" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>14</v>
@@ -12097,9 +11949,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="A15" t="str">
-        <f>IFERROR(VLOOKUP(B15,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A15" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
@@ -12136,9 +11987,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
-      <c r="A16" t="str">
-        <f>IFERROR(VLOOKUP(B16,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A16" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>16</v>
@@ -12175,9 +12025,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1">
-      <c r="A17" t="str">
-        <f>IFERROR(VLOOKUP(B17,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A17" t="s">
+        <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>17</v>
@@ -12214,9 +12063,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A18" t="str">
-        <f>IFERROR(VLOOKUP(B18,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A18" t="s">
+        <v>39</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>18</v>
@@ -12253,9 +12101,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1">
-      <c r="A19" t="str">
-        <f>IFERROR(VLOOKUP(B19,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A19" t="s">
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>19</v>
@@ -12292,9 +12139,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1">
-      <c r="A20" t="str">
-        <f>IFERROR(VLOOKUP(B20,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A20" t="s">
+        <v>36</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
@@ -12309,9 +12155,8 @@
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1">
-      <c r="A21" t="str">
-        <f>IFERROR(VLOOKUP(B21,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A21" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -12348,9 +12193,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1">
-      <c r="A22" t="str">
-        <f>IFERROR(VLOOKUP(B22,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A22" t="s">
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -12387,9 +12231,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1">
-      <c r="A23" t="str">
-        <f>IFERROR(VLOOKUP(B23,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A23" t="s">
+        <v>39</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>22</v>
@@ -12426,9 +12269,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1">
-      <c r="A24" t="str">
-        <f>IFERROR(VLOOKUP(B24,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A24" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -12465,9 +12307,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A25" t="str">
-        <f>IFERROR(VLOOKUP(B25,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A25" t="s">
+        <v>39</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>24</v>
@@ -12504,9 +12345,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1">
-      <c r="A26" t="str">
-        <f>IFERROR(VLOOKUP(B26,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A26" t="s">
+        <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
@@ -12543,9 +12383,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1">
-      <c r="A27" t="str">
-        <f>IFERROR(VLOOKUP(B27,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A27" t="s">
+        <v>36</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
@@ -12560,9 +12399,8 @@
       <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1">
-      <c r="A28" t="str">
-        <f>IFERROR(VLOOKUP(B28,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A28" t="s">
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
@@ -12599,9 +12437,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" thickBot="1">
-      <c r="A29" t="str">
-        <f>IFERROR(VLOOKUP(B29,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A29" t="s">
+        <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>27</v>
@@ -12638,9 +12475,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" thickBot="1">
-      <c r="A30" t="str">
-        <f>IFERROR(VLOOKUP(B30,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A30" t="s">
+        <v>39</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>28</v>
@@ -12677,9 +12513,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1">
-      <c r="A31" t="str">
-        <f>IFERROR(VLOOKUP(B31,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A31" t="s">
+        <v>36</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
@@ -12694,9 +12529,8 @@
       <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A32" t="str">
-        <f>IFERROR(VLOOKUP(B32,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A32" t="s">
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
@@ -12733,9 +12567,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" thickBot="1">
-      <c r="A33" t="str">
-        <f>IFERROR(VLOOKUP(B33,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A33" t="s">
+        <v>39</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
@@ -12772,9 +12605,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1">
-      <c r="A34" t="str">
-        <f>IFERROR(VLOOKUP(B34,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A34" t="s">
+        <v>39</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>31</v>
@@ -12811,9 +12643,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" thickBot="1">
-      <c r="A35" t="str">
-        <f>IFERROR(VLOOKUP(B35,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A35" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>32</v>
@@ -12850,9 +12681,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1">
-      <c r="A36" t="str">
-        <f>IFERROR(VLOOKUP(B36,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v/>
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
@@ -12867,9 +12697,8 @@
       <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12" ht="18.5" thickBot="1">
-      <c r="A37" t="str">
-        <f>IFERROR(VLOOKUP(B37,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L2</v>
+      <c r="A37" t="s">
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>33</v>
@@ -12906,9 +12735,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1">
-      <c r="A38" t="str">
-        <f>IFERROR(VLOOKUP(B38,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A38" t="s">
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>34</v>
@@ -12945,9 +12773,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" thickBot="1">
-      <c r="A39" t="str">
-        <f>IFERROR(VLOOKUP(B39,'2010'!$P$6:$Q$46,2,FALSE),"")</f>
-        <v>L0</v>
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>35</v>
@@ -12985,10 +12812,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B27:L27"/>
     <mergeCell ref="B31:L31"/>
     <mergeCell ref="B36:L36"/>
     <mergeCell ref="I2:J2"/>
@@ -13004,6 +12827,10 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B27:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13011,10 +12838,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E550269-274F-4F93-83A6-F78041E786D7}">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13023,7 +12850,7 @@
     <col min="2" max="2" width="43.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
       <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
@@ -13044,7 +12871,7 @@
       <c r="K1" s="27"/>
       <c r="L1" s="26"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:12">
       <c r="B2" s="21"/>
       <c r="C2" s="28" t="s">
         <v>4</v>
@@ -13067,7 +12894,7 @@
       </c>
       <c r="L2" s="29"/>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
+    <row r="3" spans="1:12" ht="15" thickBot="1">
       <c r="B3" s="21"/>
       <c r="C3" s="23" t="s">
         <v>5</v>
@@ -13090,7 +12917,7 @@
       </c>
       <c r="L3" s="24"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1">
+    <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -13126,13 +12953,13 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1">
+    <row r="5" spans="1:12" ht="15" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
+    <row r="6" spans="1:12" ht="15" thickBot="1">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -13169,17 +12996,11 @@
       <c r="L6" s="11">
         <v>63456</v>
       </c>
-      <c r="P6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1">
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1">
+    <row r="8" spans="1:12" ht="15" thickBot="1">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -13216,17 +13037,11 @@
       <c r="L8" s="11">
         <v>26502</v>
       </c>
-      <c r="P8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1">
+    <row r="10" spans="1:12" ht="15" thickBot="1">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -13263,14 +13078,8 @@
       <c r="L10" s="11">
         <v>8960</v>
       </c>
-      <c r="P10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -13307,14 +13116,8 @@
       <c r="L11" s="11">
         <v>5712</v>
       </c>
-      <c r="P11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -13351,14 +13154,8 @@
       <c r="L12" s="11">
         <v>3248</v>
       </c>
-      <c r="P12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -13395,14 +13192,8 @@
       <c r="L13" s="11">
         <v>17542</v>
       </c>
-      <c r="P13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -13439,14 +13230,8 @@
       <c r="L14">
         <v>909</v>
       </c>
-      <c r="P14" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -13483,14 +13268,8 @@
       <c r="L15">
         <v>336</v>
       </c>
-      <c r="P15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -13527,14 +13306,8 @@
       <c r="L16">
         <v>649</v>
       </c>
-      <c r="P16" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -13571,14 +13344,8 @@
       <c r="L17" s="11">
         <v>1491</v>
       </c>
-      <c r="P17" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -13615,14 +13382,8 @@
       <c r="L18">
         <v>836</v>
       </c>
-      <c r="P18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -13659,18 +13420,12 @@
       <c r="L19" s="11">
         <v>6300</v>
       </c>
-      <c r="P19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1">
       <c r="B20" s="7"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1">
+    <row r="21" spans="1:12" ht="15" thickBot="1">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -13707,18 +13462,12 @@
       <c r="L21" s="11">
         <v>1244</v>
       </c>
-      <c r="P21" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1">
       <c r="B22" s="6"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1">
+    <row r="23" spans="1:12" ht="15" thickBot="1">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -13755,17 +13504,11 @@
       <c r="L23" s="11">
         <v>5777</v>
       </c>
-      <c r="P23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1">
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:17" ht="15" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -13802,14 +13545,8 @@
       <c r="L25" s="11">
         <v>13008</v>
       </c>
-      <c r="P25" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="26" spans="1:12" ht="15" thickBot="1">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -13846,14 +13583,8 @@
       <c r="L26" s="11">
         <v>2892</v>
       </c>
-      <c r="P26" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -13890,14 +13621,8 @@
       <c r="L27">
         <v>657</v>
       </c>
-      <c r="P27" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -13934,18 +13659,12 @@
       <c r="L28" s="11">
         <v>3603</v>
       </c>
-      <c r="P28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1">
       <c r="B29" s="8"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:17" ht="15" thickBot="1">
+    <row r="30" spans="1:12" ht="15" thickBot="1">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -13982,14 +13701,8 @@
       <c r="L30" s="11">
         <v>2114</v>
       </c>
-      <c r="P30" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="31" spans="1:12" ht="15" thickBot="1">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -14026,17 +13739,11 @@
       <c r="L31" s="11">
         <v>3742</v>
       </c>
-      <c r="P31" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="32" spans="1:12" ht="15" thickBot="1">
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1">
+    <row r="33" spans="1:12" ht="15" thickBot="1">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -14073,14 +13780,8 @@
       <c r="L33" s="11">
         <v>20020</v>
       </c>
-      <c r="P33" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="34" spans="1:12" ht="15" thickBot="1">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -14117,14 +13818,8 @@
       <c r="L34" s="11">
         <v>6989</v>
       </c>
-      <c r="P34" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="35" spans="1:12" ht="15" thickBot="1">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -14161,20 +13856,14 @@
       <c r="L35" s="11">
         <v>13031</v>
       </c>
-      <c r="P35" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+    </row>
+    <row r="36" spans="1:12">
       <c r="E36" s="12"/>
     </row>
-    <row r="37" spans="1:17" ht="15" thickBot="1">
+    <row r="37" spans="1:12" ht="15" thickBot="1">
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="1:17" ht="15" thickBot="1">
+    <row r="38" spans="1:12" ht="15" thickBot="1">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -14211,14 +13900,8 @@
       <c r="L38">
         <v>583</v>
       </c>
-      <c r="P38" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="39" spans="1:12" ht="15" thickBot="1">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -14255,14 +13938,8 @@
       <c r="L39">
         <v>214</v>
       </c>
-      <c r="P39" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="40" spans="1:12" ht="15" thickBot="1">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -14299,14 +13976,8 @@
       <c r="L40">
         <v>183</v>
       </c>
-      <c r="P40" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="41" spans="1:12" ht="15" thickBot="1">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -14343,20 +14014,14 @@
       <c r="L41">
         <v>186</v>
       </c>
-      <c r="P41" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+    </row>
+    <row r="42" spans="1:12">
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:17" ht="15" thickBot="1">
+    <row r="43" spans="1:12" ht="15" thickBot="1">
       <c r="E43" s="12"/>
     </row>
-    <row r="44" spans="1:17" ht="15" thickBot="1">
+    <row r="44" spans="1:12" ht="15" thickBot="1">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -14393,14 +14058,8 @@
       <c r="L44" s="11">
         <v>3342</v>
       </c>
-      <c r="P44" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="45" spans="1:12" ht="15" thickBot="1">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -14437,14 +14096,8 @@
       <c r="L45" s="11">
         <v>2169</v>
       </c>
-      <c r="P45" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="46" spans="1:12" ht="15" thickBot="1">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -14480,12 +14133,6 @@
       </c>
       <c r="L46" s="11">
         <v>1173</v>
-      </c>
-      <c r="P46" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -14514,7 +14161,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1048576"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15810,9 +15457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754FC415-D691-470A-ADD5-D93CB65367F1}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -17102,9 +16747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4E1AA6-747E-4AB1-B21C-B493E72564A1}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>

--- a/assets/bls_cpsaat09_2002_to_2015.xlsx
+++ b/assets/bls_cpsaat09_2002_to_2015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alasw\Documents\UMich\MADS\Courses\SIADS - 593 Milestone 1\Project\Project\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34516BE-67B3-496F-AF7D-ED67D032998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE56E11D-D4F8-48A8-B151-E1FE8D486D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{477158E9-53BF-4D82-B12D-76B01EEAC891}"/>
+    <workbookView xWindow="15230" yWindow="1810" windowWidth="21090" windowHeight="13190" xr2:uid="{477158E9-53BF-4D82-B12D-76B01EEAC891}"/>
   </bookViews>
   <sheets>
     <sheet name="level_mapping" sheetId="26" r:id="rId1"/>
@@ -27,7 +27,12 @@
     <sheet name="2005" sheetId="8" r:id="rId12"/>
     <sheet name="2004" sheetId="9" r:id="rId13"/>
     <sheet name="2003" sheetId="10" r:id="rId14"/>
+    <sheet name="major_mapping" sheetId="27" r:id="rId15"/>
+    <sheet name="course_mapping" sheetId="28" r:id="rId16"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">major_mapping!$A$1:$B$350</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="492">
   <si>
     <t>Occupation</t>
   </si>
@@ -181,13 +186,1357 @@
   </si>
   <si>
     <t>occupation</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMCULT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTHRBIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTDES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASTRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOLOGY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUDDHST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CICS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLCIV </t>
+  </si>
+  <si>
+    <t>CMPTRSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANCE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EECS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGLISH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGR </t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEOSCI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTBOOKS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HISTORY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LHC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH </t>
+  </si>
+  <si>
+    <t>MCDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MECHENG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NURS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIL </t>
+  </si>
+  <si>
+    <t>PHYSICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLSCI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSYCH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELIGION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPANISH </t>
+  </si>
+  <si>
+    <t>STATS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRATEGY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOMENSTD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRENCH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTHRCUL </t>
+  </si>
+  <si>
+    <t>Finacnce</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>https://catalog.umd.umich.edu/graduate/coursesaz/</t>
+  </si>
+  <si>
+    <t>Anthropology Biology</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Business Internship</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Computer Information Comupter Science</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Electrical &amp; Computer Engineering</t>
+  </si>
+  <si>
+    <t>Geology Science</t>
+  </si>
+  <si>
+    <t>Asian Studies BA Psychology BA Civil Engineering BSE American Culture BA Anthropology BA Chemical Engineering BSE Environ Policy &amp; Behavior BS Communication BA Computer Science BSE Industrial &amp; Oper Eng BSE Mechanical Engineering BSE General Studies BGS Architecture BS Mathematics BS Women's Studies BA Computer Engineering BSE History BA Brain,Behavior &amp; Cognit Sc BS English BA Psychology BS History of Art BA Spanish BA Sociology BA Economics BA General Biology BS Aerospace Engineering BSE Film and Video Studies BA Nursing BS Fresh Electrical Engineering BSE Biology BS International Studies BA Chemistry BSChem Political Science BA Business Administration BBA Microbiology BS Individualized Concentrat BA Cellular &amp; Molec Biology BS Graphic Design BFA Art and Design BFA Biopsych, Cognit &amp; Neurosci BS Public Policy BA Mathematics BA Sociology BS Japanese BA Music and Technology BMus Psych as Nat Science BS Industrial Design BFA English BS Sport Management BA Judaic Studies BA Environment BS Arab,Arm,Pers,Turk &amp; Islamic S Education Elem BSEd Latino Studies BA Biopsych, Cognit &amp; Neurosci BA Sport Management &amp; Comm BA Anthropology-Zoology BS Economics BS Philosophy, Politics &amp; Econ BA Biopsych &amp; Cognit Science BS Computer Science BS Musical Theatre BFA Biomedical Engineering BSE Education Sec ABEd Materials Science &amp; Engin BSE Linguistics BA Biochemistry BS Spanish BS Education Sec BSEd Neuroscience BS Education Elem ABEd Social Anthropology BA Performance BMusA Nursing R N-BSN-MS Russian BA Russian &amp; E European St BA Athletic Training BS Philosophy BA Chemistry BS Screen Arts &amp; Cultures BA Organizational Studies BA Oceanography BS Program in Entrepreneurship General Studies BFA Arts and Ideas BA Movement Science BS Informatics BA Physics BS Nursing BS Soph Transfer Ecology &amp; Evolut Biology BS Nuclear Eng &amp; Radiolog Sc BSE Classical Civilization BA Dance BFA Brain,Behavior &amp; Cognit Sc BA French BA Resource Ecol &amp; Mgt BS Art and Design BA Evolutionary Anthropology BS Comparative Literature BA Dental Hygiene BS Interdisciplinary Physics BS Theatre Performance BFA Naval Arch &amp; Marine Eng BSE Anthropology BS Engineering BS Biology BA German BA Environmental Engineering BSE Earth Sys Sc &amp; Eng BSE Earth Sciences BS Prog in Entrepreneur BSE ChemE Informatics BS Biomolecular Science BS Performance BMus Philosophy BS Scientific Illustration BFA Political Science BS Statistics BS Mid East &amp; N African St BA Geological Sciences BS Environmental Design BS Dance BDA Individualized Concentrat BS Design and Production BFA Environment BA Music History BMusA Design BFA Evolutionary Anthropology BA Arab,Pers,Turk &amp; Islami BA AfroAmerican &amp; African St BA Italian BA Astronomy &amp; Astrophysics BS Civil &amp; Environmental Eng BSE Italian BS Theatre BTA Biophysics BS Music Education Instrmntl BMus Creative Writing-Literature BA Latin Amer &amp; Caribbean St BA Ancient &amp; Biblical St-Ne BA Medieval &amp; Early Modern St BA Music BA Environmental Geosciences BS General Physics BS Social Science BA Eng Global Lead Hon BSE Ind Op Metalwork &amp; Jewelry Desgn BFA AfroAmerican &amp; African St BS Sculpture BFA Linguistics BS Asian Studies BS Earth &amp; Environmental Sci BS Eng Global Lead Hon BSE Chem E Biopsych &amp; Cognit Science BA Composition BMus Engineering Physics BSE Plant Biology BS Oceanog Mrn Geol &amp; Geochem BS Human Nutrition BS Asian Studies BS Chem Performing Arts Tech BFA Social Theory and Practice BA Classical Archaeology BA Graphic Design BFADes Photography BFA Biochemistry BSChem History BS Sustainable Engin BSE Mech E Classical Lang &amp; Lit BA Jazz &amp; Contemplative Std BFA Prog in Global Engin BSE Bio E Jazz Studies BMusA Jazz Studies BFA Kinesiology BS Sustainability Scholars Prog Sound Engineering BS Cognitive Science BA Physical Education T.E. BS Materials &amp; Metallurgical BSE Painting/Drawing BFA Studies in Religion BA Creative Writing-Literature BS Meteorology BSE Eng Global Lead Hon BSE MechE Film and Video Studies BS Music Theory BMus Hebrew &amp; Jewish Cult Std BA Drama BA Industrial Design BFADes Music Education Choral BMus French BS Printmaking BFA Earth System Science Women's Studies BS Latin BA Cognitive Science BS Environmental Geology BS Prog in Entrepreneur BSE IndOp Greek BA Information BS Nursing BS WCC Junior Transfer Medical Technology BS German BS Modern Greek BA Polish BA Chinese BS Theatre &amp; Drama BA Sustainable Engin BSE ESS Chinese BA Landscape Design &amp; Plan BS Anthropology-Zoology BA Prog in Global Engin BSE IndOp Ancient Civil &amp; Biblic St BA Studies in Religion BS Biomedical Sciences BS Prog in Global Engin BSE MechE History of Art BS Prog in Entrepreneur BSE MechE Russian, E Europ &amp; Euras St BA Classical Civilization BS Nuclear Engineering BSE Sustainable Engin BSE Civ E Eng Global Lead Hon BSE Elec E Scandinavian Studies BA Astronomy BS Pharmaceutical Sciences BS Social Theory and Practice BS Dance BFA with Certificate Physics BSChem Eng Global Lead Hon BSE Civil Organizational Studies BS Interarts Performance BFA Atmos Ocean &amp; Space Sc BS Music Theory BMusA Statistics BA Music BS Music History BMus Honors in the Liberal Arts Sport Management BS Near Eastern Studies Dept BA Drama BS General Biology BA Communication BS German BSChem Sustainable Engin BSE Chem E Dramatic Writing BA American Culture BS Screen Arts &amp; Cultures BS Composition BMusA International Studies BS Sport Management &amp; Comm BS Prog in Global Engin BSE ChemE Social Science BA Prog in Entrepreneur BSE CompS Hebrew &amp; Jewish Cult Std BS Geological Sciences BA Fibers BFA Prog in Global Engin BSE CompS Sustainable Engin BSE Mat Sc Polish BS Latin BS Interior Design BFA Ceramics BFA Jazz &amp; Contemporary Improv BFA Asian Studies: Japan BA Second Career Nursing BS Near Eastern Civilization BS Computer Science BA Eng Global Lead Hon BSE BioMed Interdis Chemical Sciences BS Classical Archaeology BS Romance Lang &amp; Literatures BA Botany BA Latin Amer &amp; Caribbean St BS Classical Lang &amp; Lit BS Nat Res - Biophysics BS Atmospheric &amp; Oceanic Sci BS Cellular &amp; Molec Biol BSChem Botany BS Eng Global Lead Hon BSE Mat Sc Earth Sciences BA Japanese BS Mixed Media BFA Chemical Science BS Music BMU Medieval &amp; Renaissance St BA Meteorology BS Engineering Science BSE Russian BS Nursing R N-BSN Ann Arbor Eng Global Lead Hon BSE Comp E Sustainable Engin BSE Ind Op Near East &amp; N Africa Stdy BA Physical Education BS Nursing BS Soph JCC Transfer Eng Global Lead Hon BSE Aero Spanish BSChem Interdisciplinary Astronomy BS Social Science BS Modern Greek BS Medicinal Chemistry BS Asian Studies: China BA Nat Res - Sociobehavior BS Teacher Education BS Prog in Global Engin BSE Mat S Music BSChem Prog in Global Engin BSE Civ E Judaic Studies BS Arab,Pers,Turk &amp; Islami BS Near Eastern Civilization BA Psychology BSChem Neuroscience BS Chem Eng Global Lead Hon BSE CS Social Anthropology BS Hebrew Studies-Ne BA Mathematics BSChem Creative Writing-Lit BA Anthropology BS Chem Russian &amp; E European St BS Asian Studies: Japan BSChem Plant Biology BSChem Prog in Global Engin BSE ElecE Economics BSChem Interdisciplinary Physics BA Prog in Entrepreneur BSE BioE Sustainable Engin BSE Aero Phys Ed Athletic Training BS Theatre &amp; Drama BS Literature BA Classical Civilization BSChem Prog in Global Engin BSE NAME Interdisc Physics BSChem Nursing BS Fresh Transfer Cellular &amp; Molec Biology BA Astronomy &amp; Astrophysics BA Natural Resources BS Unclassified Arts and Ideas BS Near Eastern Studies Dept BS Sustainable Engin BSE Env E Russian, E Europ &amp; Euras St BS Computer &amp; Commun Science BS Biomedical Sciences BA Musical Theatre BFM Computer Science BS Chem Prog in Global Engin BSE Aero Comparative Literature BS Women's Studies BSChem</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>Asian Studies BA</t>
+  </si>
+  <si>
+    <t>Psychology BA</t>
+  </si>
+  <si>
+    <t>Civil Engineering BSE</t>
+  </si>
+  <si>
+    <t>American Culture BA</t>
+  </si>
+  <si>
+    <t>Anthropology BA</t>
+  </si>
+  <si>
+    <t>Chemical Engineering BSE</t>
+  </si>
+  <si>
+    <t>Environ Policy &amp; Behavior BS</t>
+  </si>
+  <si>
+    <t>Communication BA</t>
+  </si>
+  <si>
+    <t>Computer Science BSE</t>
+  </si>
+  <si>
+    <t>Industrial &amp; Oper Eng BSE</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering BSE</t>
+  </si>
+  <si>
+    <t>General Studies BGS</t>
+  </si>
+  <si>
+    <t>Architecture BS</t>
+  </si>
+  <si>
+    <t>Mathematics BS</t>
+  </si>
+  <si>
+    <t>Women's Studies BA</t>
+  </si>
+  <si>
+    <t>Computer Engineering BSE</t>
+  </si>
+  <si>
+    <t>History BA</t>
+  </si>
+  <si>
+    <t>Brain,Behavior &amp; Cognit Sc BS</t>
+  </si>
+  <si>
+    <t>English BA</t>
+  </si>
+  <si>
+    <t>Psychology BS</t>
+  </si>
+  <si>
+    <t>History of Art BA</t>
+  </si>
+  <si>
+    <t>Spanish BA</t>
+  </si>
+  <si>
+    <t>Sociology BA</t>
+  </si>
+  <si>
+    <t>Economics BA</t>
+  </si>
+  <si>
+    <t>General Biology BS</t>
+  </si>
+  <si>
+    <t>Aerospace Engineering  BSE</t>
+  </si>
+  <si>
+    <t>Film and Video Studies BA</t>
+  </si>
+  <si>
+    <t>Nursing BS Fresh</t>
+  </si>
+  <si>
+    <t>Electrical Engineering BSE</t>
+  </si>
+  <si>
+    <t>Biology BS</t>
+  </si>
+  <si>
+    <t>International Studies BA</t>
+  </si>
+  <si>
+    <t>Chemistry BSChem</t>
+  </si>
+  <si>
+    <t>Political Science BA</t>
+  </si>
+  <si>
+    <t>Business Administration BBA</t>
+  </si>
+  <si>
+    <t>Microbiology BS</t>
+  </si>
+  <si>
+    <t>Individualized Concentrat BA</t>
+  </si>
+  <si>
+    <t>Cellular &amp; Molec Biology BS</t>
+  </si>
+  <si>
+    <t>Graphic Design BFA</t>
+  </si>
+  <si>
+    <t>Art and Design BFA</t>
+  </si>
+  <si>
+    <t>Biopsych, Cognit &amp; Neurosci BS</t>
+  </si>
+  <si>
+    <t>Public Policy BA</t>
+  </si>
+  <si>
+    <t>Mathematics BA</t>
+  </si>
+  <si>
+    <t>Sociology BS</t>
+  </si>
+  <si>
+    <t>Japanese BA</t>
+  </si>
+  <si>
+    <t>Music and Technology BMus</t>
+  </si>
+  <si>
+    <t>Psych as Nat Science BS</t>
+  </si>
+  <si>
+    <t>Industrial Design BFA</t>
+  </si>
+  <si>
+    <t>English BS</t>
+  </si>
+  <si>
+    <t>Sport Management BA</t>
+  </si>
+  <si>
+    <t>Judaic Studies BA</t>
+  </si>
+  <si>
+    <t>Environment BS</t>
+  </si>
+  <si>
+    <t>Arab,Arm,Pers,Turk &amp; Islamic S</t>
+  </si>
+  <si>
+    <t>Education Elem BSEd</t>
+  </si>
+  <si>
+    <t>Latino Studies BA</t>
+  </si>
+  <si>
+    <t>Biopsych, Cognit &amp; Neurosci BA</t>
+  </si>
+  <si>
+    <t>Sport Management &amp; Comm BA</t>
+  </si>
+  <si>
+    <t>Anthropology-Zoology BS</t>
+  </si>
+  <si>
+    <t>Economics BS</t>
+  </si>
+  <si>
+    <t>Philosophy, Politics &amp; Econ BA</t>
+  </si>
+  <si>
+    <t>Biopsych &amp; Cognit Science BS</t>
+  </si>
+  <si>
+    <t>Computer Science BS</t>
+  </si>
+  <si>
+    <t>Musical Theatre BFA</t>
+  </si>
+  <si>
+    <t>Biomedical Engineering BSE</t>
+  </si>
+  <si>
+    <t>Education Sec ABEd</t>
+  </si>
+  <si>
+    <t>Materials Science &amp; Engin BSE</t>
+  </si>
+  <si>
+    <t>Linguistics BA</t>
+  </si>
+  <si>
+    <t>Biochemistry BS</t>
+  </si>
+  <si>
+    <t>Spanish BS</t>
+  </si>
+  <si>
+    <t>Education Sec BSEd</t>
+  </si>
+  <si>
+    <t>Neuroscience BS</t>
+  </si>
+  <si>
+    <t>Education Elem ABEd</t>
+  </si>
+  <si>
+    <t>Social Anthropology BA</t>
+  </si>
+  <si>
+    <t>Performance BMusA</t>
+  </si>
+  <si>
+    <t>Nursing R N-BSN-MS</t>
+  </si>
+  <si>
+    <t>Russian BA</t>
+  </si>
+  <si>
+    <t>Russian &amp; E European St BA</t>
+  </si>
+  <si>
+    <t>Athletic Training BS</t>
+  </si>
+  <si>
+    <t>Philosophy BA</t>
+  </si>
+  <si>
+    <t>Chemistry BS</t>
+  </si>
+  <si>
+    <t>Screen Arts &amp; Cultures BA</t>
+  </si>
+  <si>
+    <t>Organizational Studies BA</t>
+  </si>
+  <si>
+    <t>Oceanography BS</t>
+  </si>
+  <si>
+    <t>Program in Entrepreneurship</t>
+  </si>
+  <si>
+    <t>General Studies BFA</t>
+  </si>
+  <si>
+    <t>Arts and Ideas BA</t>
+  </si>
+  <si>
+    <t>Movement Science BS</t>
+  </si>
+  <si>
+    <t>Informatics BA</t>
+  </si>
+  <si>
+    <t>Physics BS</t>
+  </si>
+  <si>
+    <t>Nursing BS Soph Transfer</t>
+  </si>
+  <si>
+    <t>Ecology &amp; Evolut Biology BS</t>
+  </si>
+  <si>
+    <t>Nuclear Eng &amp; Radiolog Sc BSE</t>
+  </si>
+  <si>
+    <t>Classical Civilization BA</t>
+  </si>
+  <si>
+    <t>Dance BFA</t>
+  </si>
+  <si>
+    <t>Brain,Behavior &amp; Cognit Sc BA</t>
+  </si>
+  <si>
+    <t>French BA</t>
+  </si>
+  <si>
+    <t>Resource Ecol &amp; Mgt BS</t>
+  </si>
+  <si>
+    <t>Art and Design BA</t>
+  </si>
+  <si>
+    <t>Evolutionary Anthropology BS</t>
+  </si>
+  <si>
+    <t>Comparative Literature BA</t>
+  </si>
+  <si>
+    <t>Dental Hygiene BS</t>
+  </si>
+  <si>
+    <t>Interdisciplinary Physics BS</t>
+  </si>
+  <si>
+    <t>Theatre Performance BFA</t>
+  </si>
+  <si>
+    <t>Naval Arch &amp; Marine Eng BSE</t>
+  </si>
+  <si>
+    <t>Anthropology BS</t>
+  </si>
+  <si>
+    <t>Engineering BS</t>
+  </si>
+  <si>
+    <t>Biology BA</t>
+  </si>
+  <si>
+    <t>German BA</t>
+  </si>
+  <si>
+    <t>Environmental Engineering BSE</t>
+  </si>
+  <si>
+    <t>Earth Sys Sc &amp; Eng BSE</t>
+  </si>
+  <si>
+    <t>Earth Sciences BS</t>
+  </si>
+  <si>
+    <t>Prog in Entrepreneur BSE ChemE</t>
+  </si>
+  <si>
+    <t>Informatics BS</t>
+  </si>
+  <si>
+    <t>Biomolecular Science BS</t>
+  </si>
+  <si>
+    <t>Performance BMus</t>
+  </si>
+  <si>
+    <t>Philosophy BS</t>
+  </si>
+  <si>
+    <t>Scientific Illustration BFA</t>
+  </si>
+  <si>
+    <t>Political Science BS</t>
+  </si>
+  <si>
+    <t>Statistics BS</t>
+  </si>
+  <si>
+    <t>Mid East &amp; N African St BA</t>
+  </si>
+  <si>
+    <t>Geological Sciences  BS</t>
+  </si>
+  <si>
+    <t>Environmental Design BS</t>
+  </si>
+  <si>
+    <t>Dance BDA</t>
+  </si>
+  <si>
+    <t>Individualized Concentrat BS</t>
+  </si>
+  <si>
+    <t>Design and Production BFA</t>
+  </si>
+  <si>
+    <t>Environment BA</t>
+  </si>
+  <si>
+    <t>Music History BMusA</t>
+  </si>
+  <si>
+    <t>Design BFA</t>
+  </si>
+  <si>
+    <t>Evolutionary Anthropology BA</t>
+  </si>
+  <si>
+    <t>Arab,Pers,Turk &amp; Islami BA</t>
+  </si>
+  <si>
+    <t>AfroAmerican &amp; African St BA</t>
+  </si>
+  <si>
+    <t>Italian BA</t>
+  </si>
+  <si>
+    <t>Astronomy &amp; Astrophysics BS</t>
+  </si>
+  <si>
+    <t>Civil &amp; Environmental Eng BSE</t>
+  </si>
+  <si>
+    <t>Italian BS</t>
+  </si>
+  <si>
+    <t>Theatre BTA</t>
+  </si>
+  <si>
+    <t>Biophysics BS</t>
+  </si>
+  <si>
+    <t>Music Education Instrmntl BMus</t>
+  </si>
+  <si>
+    <t>Creative Writing-Literature BA</t>
+  </si>
+  <si>
+    <t>Latin Amer &amp; Caribbean St BA</t>
+  </si>
+  <si>
+    <t>Ancient &amp; Biblical St-Ne BA</t>
+  </si>
+  <si>
+    <t>Medieval &amp; Early Modern St BA</t>
+  </si>
+  <si>
+    <t>Music BA</t>
+  </si>
+  <si>
+    <t>Environmental Geosciences BS</t>
+  </si>
+  <si>
+    <t>General Physics BS</t>
+  </si>
+  <si>
+    <t>Social Science BA</t>
+  </si>
+  <si>
+    <t>Eng Global Lead Hon BSE Ind Op</t>
+  </si>
+  <si>
+    <t>Metalwork &amp; Jewelry Desgn BFA</t>
+  </si>
+  <si>
+    <t>AfroAmerican &amp; African St BS</t>
+  </si>
+  <si>
+    <t>Sculpture BFA</t>
+  </si>
+  <si>
+    <t>Linguistics BS</t>
+  </si>
+  <si>
+    <t>Asian Studies BS</t>
+  </si>
+  <si>
+    <t>Earth &amp; Environmental Sci BS</t>
+  </si>
+  <si>
+    <t>Eng Global Lead Hon BSE Chem E</t>
+  </si>
+  <si>
+    <t>Biopsych &amp; Cognit Science BA</t>
+  </si>
+  <si>
+    <t>Composition BMus</t>
+  </si>
+  <si>
+    <t>Engineering Physics BSE</t>
+  </si>
+  <si>
+    <t>Plant Biology BS</t>
+  </si>
+  <si>
+    <t>Oceanog Mrn Geol &amp; Geochem BS</t>
+  </si>
+  <si>
+    <t>Human Nutrition BS</t>
+  </si>
+  <si>
+    <t>Asian Studies BS Chem</t>
+  </si>
+  <si>
+    <t>Performing Arts Tech BFA</t>
+  </si>
+  <si>
+    <t>Social Theory and Practice BA</t>
+  </si>
+  <si>
+    <t>Classical Archaeology BA</t>
+  </si>
+  <si>
+    <t>Graphic Design BFADes</t>
+  </si>
+  <si>
+    <t>Photography BFA</t>
+  </si>
+  <si>
+    <t>Biochemistry BSChem</t>
+  </si>
+  <si>
+    <t>History BS</t>
+  </si>
+  <si>
+    <t>Sustainable Engin BSE Mech E</t>
+  </si>
+  <si>
+    <t>Classical Lang &amp; Lit BA</t>
+  </si>
+  <si>
+    <t>Jazz &amp; Contemplative Std BFA</t>
+  </si>
+  <si>
+    <t>Prog in Global Engin BSE Bio E</t>
+  </si>
+  <si>
+    <t>Jazz Studies BMusA</t>
+  </si>
+  <si>
+    <t>Jazz Studies BFA</t>
+  </si>
+  <si>
+    <t>Kinesiology BS</t>
+  </si>
+  <si>
+    <t>Sustainability Scholars Prog</t>
+  </si>
+  <si>
+    <t>Sound Engineering BS</t>
+  </si>
+  <si>
+    <t>Cognitive Science BA</t>
+  </si>
+  <si>
+    <t>Physical Education T.E. BS</t>
+  </si>
+  <si>
+    <t>Materials &amp; Metallurgical BSE</t>
+  </si>
+  <si>
+    <t>Painting/Drawing BFA</t>
+  </si>
+  <si>
+    <t>Studies in Religion BA</t>
+  </si>
+  <si>
+    <t>Creative Writing-Literature BS</t>
+  </si>
+  <si>
+    <t>Meteorology BSE</t>
+  </si>
+  <si>
+    <t>Eng Global Lead Hon BSE MechE</t>
+  </si>
+  <si>
+    <t>Film and Video Studies BS</t>
+  </si>
+  <si>
+    <t>Music Theory BMus</t>
+  </si>
+  <si>
+    <t>Hebrew &amp; Jewish Cult Std BA</t>
+  </si>
+  <si>
+    <t>Drama BA</t>
+  </si>
+  <si>
+    <t>Industrial Design BFADes</t>
+  </si>
+  <si>
+    <t>Music Education Choral BMus</t>
+  </si>
+  <si>
+    <t>French BS</t>
+  </si>
+  <si>
+    <t>Printmaking BFA</t>
+  </si>
+  <si>
+    <t>Earth System Science</t>
+  </si>
+  <si>
+    <t>Women's Studies BS</t>
+  </si>
+  <si>
+    <t>Latin BA</t>
+  </si>
+  <si>
+    <t>Cognitive Science BS</t>
+  </si>
+  <si>
+    <t>Environmental Geology BS</t>
+  </si>
+  <si>
+    <t>Prog in Entrepreneur BSE IndOp</t>
+  </si>
+  <si>
+    <t>Greek BA</t>
+  </si>
+  <si>
+    <t>Information BS</t>
+  </si>
+  <si>
+    <t>Nursing BS WCC Junior Transfer</t>
+  </si>
+  <si>
+    <t>Medical Technology BS</t>
+  </si>
+  <si>
+    <t>German BS</t>
+  </si>
+  <si>
+    <t>Modern Greek BA</t>
+  </si>
+  <si>
+    <t>Polish BA</t>
+  </si>
+  <si>
+    <t>Chinese BS</t>
+  </si>
+  <si>
+    <t>Theatre &amp; Drama BA</t>
+  </si>
+  <si>
+    <t>Sustainable Engin BSE ESS</t>
+  </si>
+  <si>
+    <t>Chinese BA</t>
+  </si>
+  <si>
+    <t>Landscape Design &amp; Plan BS</t>
+  </si>
+  <si>
+    <t>Anthropology-Zoology BA</t>
+  </si>
+  <si>
+    <t>Prog in Global Engin BSE IndOp</t>
+  </si>
+  <si>
+    <t>Ancient Civil &amp; Biblic St BA</t>
+  </si>
+  <si>
+    <t>Studies in Religion BS</t>
+  </si>
+  <si>
+    <t>Biomedical Sciences BS</t>
+  </si>
+  <si>
+    <t>Prog in Global Engin BSE MechE</t>
+  </si>
+  <si>
+    <t>History of Art BS</t>
+  </si>
+  <si>
+    <t>Prog in Entrepreneur BSE MechE</t>
+  </si>
+  <si>
+    <t>Russian, E Europ &amp; Euras St BA</t>
+  </si>
+  <si>
+    <t>Classical Civilization BS</t>
+  </si>
+  <si>
+    <t>Nuclear Engineering BSE</t>
+  </si>
+  <si>
+    <t>Sustainable Engin BSE Civ E</t>
+  </si>
+  <si>
+    <t>Eng Global Lead Hon BSE Elec E</t>
+  </si>
+  <si>
+    <t>Scandinavian Studies BA</t>
+  </si>
+  <si>
+    <t>Astronomy BS</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Sciences BS</t>
+  </si>
+  <si>
+    <t>Social Theory and Practice BS</t>
+  </si>
+  <si>
+    <t>Dance BFA with Certificate</t>
+  </si>
+  <si>
+    <t>Physics BSChem</t>
+  </si>
+  <si>
+    <t>Eng Global Lead Hon BSE Civil</t>
+  </si>
+  <si>
+    <t>Organizational Studies BS</t>
+  </si>
+  <si>
+    <t>Interarts Performance BFA</t>
+  </si>
+  <si>
+    <t>Atmos Ocean &amp; Space Sc BS</t>
+  </si>
+  <si>
+    <t>Music Theory BMusA</t>
+  </si>
+  <si>
+    <t>Statistics BA</t>
+  </si>
+  <si>
+    <t>Music BS</t>
+  </si>
+  <si>
+    <t>Music History BMus</t>
+  </si>
+  <si>
+    <t>Honors in the Liberal Arts</t>
+  </si>
+  <si>
+    <t>Sport Management BS</t>
+  </si>
+  <si>
+    <t>Near Eastern Studies Dept BA</t>
+  </si>
+  <si>
+    <t>Drama BS</t>
+  </si>
+  <si>
+    <t>General Biology BA</t>
+  </si>
+  <si>
+    <t>Communication BS</t>
+  </si>
+  <si>
+    <t>German BSChem</t>
+  </si>
+  <si>
+    <t>Sustainable Engin BSE Chem E</t>
+  </si>
+  <si>
+    <t>Dramatic Writing  BA</t>
+  </si>
+  <si>
+    <t>American Culture BS</t>
+  </si>
+  <si>
+    <t>Screen Arts &amp; Cultures BS</t>
+  </si>
+  <si>
+    <t>Composition BMusA</t>
+  </si>
+  <si>
+    <t>International Studies BS</t>
+  </si>
+  <si>
+    <t>Sport Management &amp; Comm BS</t>
+  </si>
+  <si>
+    <t>Prog in Global Engin BSE ChemE</t>
+  </si>
+  <si>
+    <t>Social Science  BA</t>
+  </si>
+  <si>
+    <t>Prog in Entrepreneur BSE CompS</t>
+  </si>
+  <si>
+    <t>Hebrew &amp; Jewish Cult Std BS</t>
+  </si>
+  <si>
+    <t>Geological Sciences  BA</t>
+  </si>
+  <si>
+    <t>Fibers BFA</t>
+  </si>
+  <si>
+    <t>Prog in Global Engin BSE CompS</t>
+  </si>
+  <si>
+    <t>Sustainable Engin BSE Mat Sc</t>
+  </si>
+  <si>
+    <t>Polish BS</t>
+  </si>
+  <si>
+    <t>Latin BS</t>
+  </si>
+  <si>
+    <t>Interior Design BFA</t>
+  </si>
+  <si>
+    <t>Ceramics BFA</t>
+  </si>
+  <si>
+    <t>Jazz &amp; Contemporary Improv BFA</t>
+  </si>
+  <si>
+    <t>Asian Studies: Japan BA</t>
+  </si>
+  <si>
+    <t>Second Career Nursing BS</t>
+  </si>
+  <si>
+    <t>Near Eastern Civilization BS</t>
+  </si>
+  <si>
+    <t>Computer Science BA</t>
+  </si>
+  <si>
+    <t>Eng Global Lead Hon BSE BioMed</t>
+  </si>
+  <si>
+    <t>Interdis Chemical Sciences BS</t>
+  </si>
+  <si>
+    <t>Classical Archaeology BS</t>
+  </si>
+  <si>
+    <t>Romance Lang &amp; Literatures BA</t>
+  </si>
+  <si>
+    <t>Botany BA</t>
+  </si>
+  <si>
+    <t>Latin Amer &amp; Caribbean St BS</t>
+  </si>
+  <si>
+    <t>Classical Lang &amp; Lit BS</t>
+  </si>
+  <si>
+    <t>Nat Res - Biophysics BS</t>
+  </si>
+  <si>
+    <t>Atmospheric &amp; Oceanic Sci BS</t>
+  </si>
+  <si>
+    <t>Cellular &amp; Molec Biol BSChem</t>
+  </si>
+  <si>
+    <t>Botany BS</t>
+  </si>
+  <si>
+    <t>Eng Global Lead Hon BSE Mat Sc</t>
+  </si>
+  <si>
+    <t>Earth Sciences BA</t>
+  </si>
+  <si>
+    <t>Japanese BS</t>
+  </si>
+  <si>
+    <t>Mixed Media BFA</t>
+  </si>
+  <si>
+    <t>Chemical Science BS</t>
+  </si>
+  <si>
+    <t>Music BMU</t>
+  </si>
+  <si>
+    <t>Medieval &amp; Renaissance St BA</t>
+  </si>
+  <si>
+    <t>Meteorology BS</t>
+  </si>
+  <si>
+    <t>Engineering Science BSE</t>
+  </si>
+  <si>
+    <t>Russian BS</t>
+  </si>
+  <si>
+    <t>Nursing R N-BSN Ann Arbor</t>
+  </si>
+  <si>
+    <t>Eng Global Lead Hon BSE Comp E</t>
+  </si>
+  <si>
+    <t>Sustainable Engin BSE Ind Op</t>
+  </si>
+  <si>
+    <t>Near East &amp; N Africa Stdy BA</t>
+  </si>
+  <si>
+    <t>Physical Education BS</t>
+  </si>
+  <si>
+    <t>Nursing BS Soph JCC Transfer</t>
+  </si>
+  <si>
+    <t>Eng Global Lead Hon BSE Aero</t>
+  </si>
+  <si>
+    <t>Spanish BSChem</t>
+  </si>
+  <si>
+    <t>Interdisciplinary Astronomy BS</t>
+  </si>
+  <si>
+    <t>Social Science  BS</t>
+  </si>
+  <si>
+    <t>Modern Greek BS</t>
+  </si>
+  <si>
+    <t>Medicinal Chemistry BS</t>
+  </si>
+  <si>
+    <t>Asian Studies: China BA</t>
+  </si>
+  <si>
+    <t>Nat Res - Sociobehavior BS</t>
+  </si>
+  <si>
+    <t>Teacher Education BS</t>
+  </si>
+  <si>
+    <t>Prog in Global Engin BSE Mat S</t>
+  </si>
+  <si>
+    <t>Music BSChem</t>
+  </si>
+  <si>
+    <t>Prog in Global Engin BSE Civ E</t>
+  </si>
+  <si>
+    <t>Judaic Studies BS</t>
+  </si>
+  <si>
+    <t>Arab,Pers,Turk &amp; Islami BS</t>
+  </si>
+  <si>
+    <t>Near Eastern Civilization BA</t>
+  </si>
+  <si>
+    <t>Psychology BSChem</t>
+  </si>
+  <si>
+    <t>Neuroscience BS Chem</t>
+  </si>
+  <si>
+    <t>Eng Global Lead Hon BSE CS</t>
+  </si>
+  <si>
+    <t>Social Anthropology BS</t>
+  </si>
+  <si>
+    <t>Hebrew Studies-Ne BA</t>
+  </si>
+  <si>
+    <t>Mathematics BSChem</t>
+  </si>
+  <si>
+    <t>Creative Writing-Lit  BA</t>
+  </si>
+  <si>
+    <t>Anthropology BS Chem</t>
+  </si>
+  <si>
+    <t>Russian &amp; E European St BS</t>
+  </si>
+  <si>
+    <t>Asian Studies: Japan BSChem</t>
+  </si>
+  <si>
+    <t>Plant Biology BSChem</t>
+  </si>
+  <si>
+    <t>Prog in Global Engin BSE ElecE</t>
+  </si>
+  <si>
+    <t>Economics BSChem</t>
+  </si>
+  <si>
+    <t>Interdisciplinary Physics BA</t>
+  </si>
+  <si>
+    <t>Prog in Entrepreneur BSE BioE</t>
+  </si>
+  <si>
+    <t>Sustainable Engin BSE Aero</t>
+  </si>
+  <si>
+    <t>Phys Ed Athletic Training BS</t>
+  </si>
+  <si>
+    <t>Theatre &amp; Drama BS</t>
+  </si>
+  <si>
+    <t>Literature BA</t>
+  </si>
+  <si>
+    <t>Classical Civilization BSChem</t>
+  </si>
+  <si>
+    <t>Prog in Global Engin BSE NAME</t>
+  </si>
+  <si>
+    <t>Interdisc Physics BSChem</t>
+  </si>
+  <si>
+    <t>Nursing BS Fresh Transfer</t>
+  </si>
+  <si>
+    <t>Cellular &amp; Molec Biology BA</t>
+  </si>
+  <si>
+    <t>Astronomy &amp; Astrophysics BA</t>
+  </si>
+  <si>
+    <t>Natural Resources BS</t>
+  </si>
+  <si>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Arts and Ideas BS</t>
+  </si>
+  <si>
+    <t>Near Eastern Studies Dept BS</t>
+  </si>
+  <si>
+    <t>Sustainable Engin BSE Env E</t>
+  </si>
+  <si>
+    <t>Russian, E Europ &amp; Euras St BS</t>
+  </si>
+  <si>
+    <t>Computer &amp; Commun Science BS</t>
+  </si>
+  <si>
+    <t>Biomedical Sciences BA</t>
+  </si>
+  <si>
+    <t>Musical Theatre BFM</t>
+  </si>
+  <si>
+    <t>Computer Science BS Chem</t>
+  </si>
+  <si>
+    <t>Prog in Global Engin BSE Aero</t>
+  </si>
+  <si>
+    <t>Comparative Literature BS</t>
+  </si>
+  <si>
+    <t>Women's Studies BSChem</t>
+  </si>
+  <si>
+    <t>Linguistics</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>Nursing</t>
+  </si>
+  <si>
+    <t>Operations Management</t>
+  </si>
+  <si>
+    <t>Orgainizational Behavior</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>Political Science</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Religious Studies</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Business Strategy</t>
+  </si>
+  <si>
+    <t>Women Studies</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Anthropology Culture</t>
+  </si>
+  <si>
+    <t>Americation Cultural</t>
+  </si>
+  <si>
+    <t>Asian Studes</t>
+  </si>
+  <si>
+    <t>Art and Design</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Astronomy and Physics</t>
+  </si>
+  <si>
+    <t>Biomedical Engineering</t>
+  </si>
+  <si>
+    <t>Classical Civilization</t>
+  </si>
+  <si>
+    <t>No Subject</t>
+  </si>
+  <si>
+    <t>SUBJECT</t>
+  </si>
+  <si>
+    <t>SUBJECT_NAME</t>
+  </si>
+  <si>
+    <t>SUBJECT_OCCUPATION</t>
+  </si>
+  <si>
+    <t>MAJOR</t>
+  </si>
+  <si>
+    <t>OCCUPATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +1577,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCEFFC5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +1624,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEF4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +1792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -522,6 +1895,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,7 +2237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97908554-CA53-457C-A07B-38D186872788}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1339,7 +2717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4E1AA6-747E-4AB1-B21C-B493E72564A1}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:E48"/>
     </sheetView>
   </sheetViews>
@@ -3188,7 +4566,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="54.5" thickBot="1">
+    <row r="46" spans="1:16" ht="15" thickBot="1">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -3242,7 +4620,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="36.5" thickBot="1">
+    <row r="47" spans="1:16" ht="15" thickBot="1">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -3296,7 +4674,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="54.5" thickBot="1">
+    <row r="48" spans="1:16" ht="15" thickBot="1">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -3375,8 +4753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3DFC74-8C32-4E4D-8E4A-1D8528859161}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E46"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5116,7 +6494,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="45.5" thickBot="1">
+    <row r="44" spans="1:16" ht="15" thickBot="1">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -5188,7 +6566,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="63.5" thickBot="1">
+    <row r="46" spans="1:16" ht="15" thickBot="1">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -5243,7 +6621,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" thickBot="1"/>
-    <row r="49" spans="1:16" ht="54.5" thickBot="1">
+    <row r="49" spans="1:16" ht="15" thickBot="1">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -5281,10 +6659,26 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="36.5" thickBot="1">
+    <row r="50" spans="1:16" ht="15" thickBot="1">
       <c r="A50" t="s">
         <v>39</v>
       </c>
+      <c r="B50" t="str">
+        <f>IFERROR(VLOOKUP($F50,level_mapping!$A$2:$F$23,B$3,FALSE),"")</f>
+        <v>Total</v>
+      </c>
+      <c r="C50" t="str">
+        <f>IFERROR(VLOOKUP($F50,level_mapping!$A$2:$F$23,C$3,FALSE),"")</f>
+        <v>Natural resources, construction, and maintenance occupations</v>
+      </c>
+      <c r="D50" t="str">
+        <f>IFERROR(VLOOKUP($F50,level_mapping!$A$2:$F$23,D$3,FALSE),"")</f>
+        <v>Natural resources, construction, and maintenance occupations</v>
+      </c>
+      <c r="E50" t="str">
+        <f>IFERROR(VLOOKUP($F50,level_mapping!$A$2:$F$23,E$3,FALSE),"")</f>
+        <v>Office and administrative support occupations</v>
+      </c>
       <c r="F50" s="4" t="s">
         <v>34</v>
       </c>
@@ -5320,9 +6714,25 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="15" thickBot="1"/>
-    <row r="52" spans="1:16" ht="54.5" thickBot="1">
+    <row r="52" spans="1:16" ht="15" thickBot="1">
       <c r="A52" t="s">
         <v>39</v>
+      </c>
+      <c r="B52" t="str">
+        <f>IFERROR(VLOOKUP($F52,level_mapping!$A$2:$F$23,B$3,FALSE),"")</f>
+        <v>Total</v>
+      </c>
+      <c r="C52" t="str">
+        <f>IFERROR(VLOOKUP($F52,level_mapping!$A$2:$F$23,C$3,FALSE),"")</f>
+        <v>Natural resources, construction, and maintenance occupations</v>
+      </c>
+      <c r="D52" t="str">
+        <f>IFERROR(VLOOKUP($F52,level_mapping!$A$2:$F$23,D$3,FALSE),"")</f>
+        <v>Natural resources, construction, and maintenance occupations</v>
+      </c>
+      <c r="E52" t="str">
+        <f>IFERROR(VLOOKUP($F52,level_mapping!$A$2:$F$23,E$3,FALSE),"")</f>
+        <v>Office and administrative support occupations</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>35</v>
@@ -5383,8 +6793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC5AE72-D41F-462E-BDC1-A48BD02BD8E0}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E46"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7124,7 +8534,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="45.5" thickBot="1">
+    <row r="44" spans="1:16" ht="15" thickBot="1">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -7196,7 +8606,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="63.5" thickBot="1">
+    <row r="46" spans="1:16" ht="15" thickBot="1">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -7251,7 +8661,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" thickBot="1"/>
-    <row r="49" spans="1:16" ht="54.5" thickBot="1">
+    <row r="49" spans="1:16" ht="15" thickBot="1">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -7289,10 +8699,26 @@
         <v>3998</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="36.5" thickBot="1">
+    <row r="50" spans="1:16" ht="15" thickBot="1">
       <c r="A50" t="s">
         <v>39</v>
       </c>
+      <c r="B50" t="str">
+        <f>IFERROR(VLOOKUP($F50,level_mapping!$A$2:$F$23,B$3,FALSE),"")</f>
+        <v>Total</v>
+      </c>
+      <c r="C50" t="str">
+        <f>IFERROR(VLOOKUP($F50,level_mapping!$A$2:$F$23,C$3,FALSE),"")</f>
+        <v>Natural resources, construction, and maintenance occupations</v>
+      </c>
+      <c r="D50" t="str">
+        <f>IFERROR(VLOOKUP($F50,level_mapping!$A$2:$F$23,D$3,FALSE),"")</f>
+        <v>Natural resources, construction, and maintenance occupations</v>
+      </c>
+      <c r="E50" t="str">
+        <f>IFERROR(VLOOKUP($F50,level_mapping!$A$2:$F$23,E$3,FALSE),"")</f>
+        <v>Office and administrative support occupations</v>
+      </c>
       <c r="F50" s="4" t="s">
         <v>34</v>
       </c>
@@ -7328,9 +8754,25 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="15" thickBot="1"/>
-    <row r="52" spans="1:16" ht="54.5" thickBot="1">
+    <row r="52" spans="1:16" ht="15" thickBot="1">
       <c r="A52" t="s">
         <v>39</v>
+      </c>
+      <c r="B52" t="str">
+        <f>IFERROR(VLOOKUP($F52,level_mapping!$A$2:$F$23,B$3,FALSE),"")</f>
+        <v>Total</v>
+      </c>
+      <c r="C52" t="str">
+        <f>IFERROR(VLOOKUP($F52,level_mapping!$A$2:$F$23,C$3,FALSE),"")</f>
+        <v>Natural resources, construction, and maintenance occupations</v>
+      </c>
+      <c r="D52" t="str">
+        <f>IFERROR(VLOOKUP($F52,level_mapping!$A$2:$F$23,D$3,FALSE),"")</f>
+        <v>Natural resources, construction, and maintenance occupations</v>
+      </c>
+      <c r="E52" t="str">
+        <f>IFERROR(VLOOKUP($F52,level_mapping!$A$2:$F$23,E$3,FALSE),"")</f>
+        <v>Office and administrative support occupations</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>35</v>
@@ -7391,7 +8833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D206ECA0-E73D-4D2B-92D8-F3A13C930746}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -9168,7 +10610,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="63.5" thickBot="1">
+    <row r="44" spans="1:16" ht="15" thickBot="1">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -9258,7 +10700,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="54.5" thickBot="1">
+    <row r="47" spans="1:16" ht="15" thickBot="1">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -9312,7 +10754,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="36.5" thickBot="1">
+    <row r="48" spans="1:16" ht="15" thickBot="1">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -9384,7 +10826,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="54.5" thickBot="1">
+    <row r="50" spans="1:16" ht="15" thickBot="1">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -9469,7 +10911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BAB161-A0ED-4331-8EE7-99BA5FB9B9F7}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -11208,7 +12652,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="45.5" thickBot="1">
+    <row r="44" spans="1:16" ht="15" thickBot="1">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -11280,7 +12724,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="63.5" thickBot="1">
+    <row r="46" spans="1:16" ht="15" thickBot="1">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -11335,7 +12779,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" thickBot="1"/>
-    <row r="49" spans="1:16" ht="54.5" thickBot="1">
+    <row r="49" spans="1:16" ht="15" thickBot="1">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -11373,10 +12817,26 @@
         <v>4143</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="36.5" thickBot="1">
+    <row r="50" spans="1:16" ht="15" thickBot="1">
       <c r="A50" t="s">
         <v>39</v>
       </c>
+      <c r="B50" t="str">
+        <f>IFERROR(VLOOKUP($F50,level_mapping!$A$2:$F$23,B$3,FALSE),"")</f>
+        <v>Total</v>
+      </c>
+      <c r="C50" t="str">
+        <f>IFERROR(VLOOKUP($F50,level_mapping!$A$2:$F$23,C$3,FALSE),"")</f>
+        <v>Natural resources, construction, and maintenance occupations</v>
+      </c>
+      <c r="D50" t="str">
+        <f>IFERROR(VLOOKUP($F50,level_mapping!$A$2:$F$23,D$3,FALSE),"")</f>
+        <v>Natural resources, construction, and maintenance occupations</v>
+      </c>
+      <c r="E50" t="str">
+        <f>IFERROR(VLOOKUP($F50,level_mapping!$A$2:$F$23,E$3,FALSE),"")</f>
+        <v>Office and administrative support occupations</v>
+      </c>
       <c r="F50" s="4" t="s">
         <v>34</v>
       </c>
@@ -11412,9 +12872,25 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="15" thickBot="1"/>
-    <row r="52" spans="1:16" ht="54.5" thickBot="1">
+    <row r="52" spans="1:16" ht="15" thickBot="1">
       <c r="A52" t="s">
         <v>39</v>
+      </c>
+      <c r="B52" t="str">
+        <f>IFERROR(VLOOKUP($F52,level_mapping!$A$2:$F$23,B$3,FALSE),"")</f>
+        <v>Total</v>
+      </c>
+      <c r="C52" t="str">
+        <f>IFERROR(VLOOKUP($F52,level_mapping!$A$2:$F$23,C$3,FALSE),"")</f>
+        <v>Natural resources, construction, and maintenance occupations</v>
+      </c>
+      <c r="D52" t="str">
+        <f>IFERROR(VLOOKUP($F52,level_mapping!$A$2:$F$23,D$3,FALSE),"")</f>
+        <v>Natural resources, construction, and maintenance occupations</v>
+      </c>
+      <c r="E52" t="str">
+        <f>IFERROR(VLOOKUP($F52,level_mapping!$A$2:$F$23,E$3,FALSE),"")</f>
+        <v>Office and administrative support occupations</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>35</v>
@@ -11471,12 +12947,5113 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BB116B-740F-463C-B729-3A516839CE33}">
+  <dimension ref="A1:B349"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="39.54296875" customWidth="1"/>
+    <col min="2" max="2" width="59.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>423</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>452</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>416</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>379</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>449</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>391</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>280</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>457</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>250</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>268</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>387</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>393</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>392</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>448</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>398</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>323</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>247</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>277</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>385</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>334</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>444</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>389</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>291</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>310</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>357</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>461</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>269</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>363</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>456</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>382</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>459</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>431</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>296</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>236</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>342</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>241</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>302</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>355</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>360</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>266</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>395</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>224</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>307</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>437</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>183</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>410</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>383</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>267</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>344</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>405</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>427</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>337</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>260</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>394</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>298</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>219</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>270</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>402</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>162</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>121</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>239</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>235</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>222</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>311</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>242</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>212</v>
+      </c>
+      <c r="B134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>299</v>
+      </c>
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>305</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>356</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>258</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>198</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>126</v>
+      </c>
+      <c r="B144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>370</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>234</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>221</v>
+      </c>
+      <c r="B147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>317</v>
+      </c>
+      <c r="B148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>358</v>
+      </c>
+      <c r="B149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>278</v>
+      </c>
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>313</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>369</v>
+      </c>
+      <c r="B154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>429</v>
+      </c>
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>131</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>281</v>
+      </c>
+      <c r="B157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>135</v>
+      </c>
+      <c r="B158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>331</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>352</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>273</v>
+      </c>
+      <c r="B161" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>124</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>161</v>
+      </c>
+      <c r="B165" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>303</v>
+      </c>
+      <c r="B166" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>201</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>226</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>314</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>346</v>
+      </c>
+      <c r="B170" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>384</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>446</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>412</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>438</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>215</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>376</v>
+      </c>
+      <c r="B176" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>145</v>
+      </c>
+      <c r="B177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>364</v>
+      </c>
+      <c r="B178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>245</v>
+      </c>
+      <c r="B179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>248</v>
+      </c>
+      <c r="B180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>158</v>
+      </c>
+      <c r="B181" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>396</v>
+      </c>
+      <c r="B182" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>284</v>
+      </c>
+      <c r="B183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>378</v>
+      </c>
+      <c r="B184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>287</v>
+      </c>
+      <c r="B185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>286</v>
+      </c>
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>164</v>
+      </c>
+      <c r="B187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>422</v>
+      </c>
+      <c r="B188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>288</v>
+      </c>
+      <c r="B189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>324</v>
+      </c>
+      <c r="B190" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>253</v>
+      </c>
+      <c r="B191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>388</v>
+      </c>
+      <c r="B192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>309</v>
+      </c>
+      <c r="B193" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>375</v>
+      </c>
+      <c r="B194" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>168</v>
+      </c>
+      <c r="B195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>180</v>
+      </c>
+      <c r="B196" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>264</v>
+      </c>
+      <c r="B197" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>443</v>
+      </c>
+      <c r="B198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>293</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>179</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>156</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>128</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>430</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>125</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>316</v>
+      </c>
+      <c r="B205" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>415</v>
+      </c>
+      <c r="B206" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>255</v>
+      </c>
+      <c r="B207" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>400</v>
+      </c>
+      <c r="B208" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>261</v>
+      </c>
+      <c r="B209" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>401</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>297</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>149</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>233</v>
+      </c>
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>397</v>
+      </c>
+      <c r="B214" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>318</v>
+      </c>
+      <c r="B215" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>414</v>
+      </c>
+      <c r="B216" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>200</v>
+      </c>
+      <c r="B217" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>159</v>
+      </c>
+      <c r="B218" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>256</v>
+      </c>
+      <c r="B219" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>399</v>
+      </c>
+      <c r="B220" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>350</v>
+      </c>
+      <c r="B221" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>420</v>
+      </c>
+      <c r="B222" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>304</v>
+      </c>
+      <c r="B223" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>251</v>
+      </c>
+      <c r="B224" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>351</v>
+      </c>
+      <c r="B225" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>240</v>
+      </c>
+      <c r="B226" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>300</v>
+      </c>
+      <c r="B227" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>348</v>
+      </c>
+      <c r="B228" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>176</v>
+      </c>
+      <c r="B229" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>458</v>
+      </c>
+      <c r="B230" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>390</v>
+      </c>
+      <c r="B231" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>417</v>
+      </c>
+      <c r="B232" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>450</v>
+      </c>
+      <c r="B233" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>217</v>
+      </c>
+      <c r="B234" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>407</v>
+      </c>
+      <c r="B235" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>424</v>
+      </c>
+      <c r="B236" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>381</v>
+      </c>
+      <c r="B237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>354</v>
+      </c>
+      <c r="B238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>453</v>
+      </c>
+      <c r="B239" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>184</v>
+      </c>
+      <c r="B240" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>426</v>
+      </c>
+      <c r="B241" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>205</v>
+      </c>
+      <c r="B242" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>335</v>
+      </c>
+      <c r="B243" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>142</v>
+      </c>
+      <c r="B244" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>447</v>
+      </c>
+      <c r="B245" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>409</v>
+      </c>
+      <c r="B246" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>203</v>
+      </c>
+      <c r="B247" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>315</v>
+      </c>
+      <c r="B248" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>404</v>
+      </c>
+      <c r="B249" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>188</v>
+      </c>
+      <c r="B250" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>272</v>
+      </c>
+      <c r="B251" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>196</v>
+      </c>
+      <c r="B252" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>195</v>
+      </c>
+      <c r="B253" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>345</v>
+      </c>
+      <c r="B254" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>294</v>
+      </c>
+      <c r="B255" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>228</v>
+      </c>
+      <c r="B256" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>187</v>
+      </c>
+      <c r="B257" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>275</v>
+      </c>
+      <c r="B258" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>340</v>
+      </c>
+      <c r="B259" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>192</v>
+      </c>
+      <c r="B260" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>229</v>
+      </c>
+      <c r="B261" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>173</v>
+      </c>
+      <c r="B262" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>279</v>
+      </c>
+      <c r="B263" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>441</v>
+      </c>
+      <c r="B264" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>408</v>
+      </c>
+      <c r="B265" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>292</v>
+      </c>
+      <c r="B266" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>202</v>
+      </c>
+      <c r="B267" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>343</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>271</v>
+      </c>
+      <c r="B269" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>435</v>
+      </c>
+      <c r="B270" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>319</v>
+      </c>
+      <c r="B271" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>374</v>
+      </c>
+      <c r="B272" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>147</v>
+      </c>
+      <c r="B273" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>231</v>
+      </c>
+      <c r="B274" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>306</v>
+      </c>
+      <c r="B275" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>439</v>
+      </c>
+      <c r="B276" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>225</v>
+      </c>
+      <c r="B277" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>368</v>
+      </c>
+      <c r="B278" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>312</v>
+      </c>
+      <c r="B279" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>332</v>
+      </c>
+      <c r="B280" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>460</v>
+      </c>
+      <c r="B281" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>366</v>
+      </c>
+      <c r="B283" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>421</v>
+      </c>
+      <c r="B284" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>372</v>
+      </c>
+      <c r="B285" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>436</v>
+      </c>
+      <c r="B286" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>326</v>
+      </c>
+      <c r="B287" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>419</v>
+      </c>
+      <c r="B288" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>330</v>
+      </c>
+      <c r="B289" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>445</v>
+      </c>
+      <c r="B290" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>197</v>
+      </c>
+      <c r="B291" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>160</v>
+      </c>
+      <c r="B292" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>116</v>
+      </c>
+      <c r="B293" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>134</v>
+      </c>
+      <c r="B294" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>425</v>
+      </c>
+      <c r="B295" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>155</v>
+      </c>
+      <c r="B296" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>210</v>
+      </c>
+      <c r="B297" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>386</v>
+      </c>
+      <c r="B298" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>190</v>
+      </c>
+      <c r="B299" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>433</v>
+      </c>
+      <c r="B300" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>189</v>
+      </c>
+      <c r="B301" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>403</v>
+      </c>
+      <c r="B302" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>333</v>
+      </c>
+      <c r="B303" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>455</v>
+      </c>
+      <c r="B304" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>338</v>
+      </c>
+      <c r="B305" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>230</v>
+      </c>
+      <c r="B306" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>194</v>
+      </c>
+      <c r="B307" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>362</v>
+      </c>
+      <c r="B308" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>263</v>
+      </c>
+      <c r="B309" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>380</v>
+      </c>
+      <c r="B310" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>186</v>
+      </c>
+      <c r="B311" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>428</v>
+      </c>
+      <c r="B312" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>367</v>
+      </c>
+      <c r="B313" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>413</v>
+      </c>
+      <c r="B314" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>259</v>
+      </c>
+      <c r="B315" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>276</v>
+      </c>
+      <c r="B316" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>341</v>
+      </c>
+      <c r="B317" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>137</v>
+      </c>
+      <c r="B318" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>157</v>
+      </c>
+      <c r="B319" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>290</v>
+      </c>
+      <c r="B320" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>136</v>
+      </c>
+      <c r="B321" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>182</v>
+      </c>
+      <c r="B322" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>411</v>
+      </c>
+      <c r="B323" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>170</v>
+      </c>
+      <c r="B324" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>365</v>
+      </c>
+      <c r="B325" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>163</v>
+      </c>
+      <c r="B326" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>353</v>
+      </c>
+      <c r="B327" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>349</v>
+      </c>
+      <c r="B328" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>232</v>
+      </c>
+      <c r="B329" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>295</v>
+      </c>
+      <c r="B330" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>328</v>
+      </c>
+      <c r="B331" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>289</v>
+      </c>
+      <c r="B332" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>440</v>
+      </c>
+      <c r="B333" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>359</v>
+      </c>
+      <c r="B334" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>336</v>
+      </c>
+      <c r="B335" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>454</v>
+      </c>
+      <c r="B336" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>322</v>
+      </c>
+      <c r="B337" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>406</v>
+      </c>
+      <c r="B338" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>373</v>
+      </c>
+      <c r="B339" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>282</v>
+      </c>
+      <c r="B340" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>418</v>
+      </c>
+      <c r="B341" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>321</v>
+      </c>
+      <c r="B342" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>442</v>
+      </c>
+      <c r="B343" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>249</v>
+      </c>
+      <c r="B344" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>216</v>
+      </c>
+      <c r="B345" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>129</v>
+      </c>
+      <c r="B347" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>308</v>
+      </c>
+      <c r="B348" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>462</v>
+      </c>
+      <c r="B349" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B350" xr:uid="{66BB116B-740F-463C-B729-3A516839CE33}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B349">
+    <sortCondition ref="A2:A349"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9990ED-D252-43F6-9459-A7957433A9D9}">
+  <dimension ref="C3:M353"/>
+  <sheetViews>
+    <sheetView topLeftCell="D19" workbookViewId="0">
+      <selection sqref="A1:B349"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.54296875" customWidth="1"/>
+    <col min="8" max="8" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" customWidth="1"/>
+    <col min="12" max="12" width="39.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:12">
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E4" t="s">
+        <v>489</v>
+      </c>
+      <c r="L4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>479</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>481</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>480</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="C11" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>486</v>
+      </c>
+      <c r="L11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="C12" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="E14" t="s">
+        <v>451</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="C15" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="C16" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>486</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>485</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>486</v>
+      </c>
+      <c r="L17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>486</v>
+      </c>
+      <c r="L18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>486</v>
+      </c>
+      <c r="L19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>486</v>
+      </c>
+      <c r="L20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="E27" t="s">
+        <v>451</v>
+      </c>
+      <c r="L27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="E29" t="s">
+        <v>451</v>
+      </c>
+      <c r="L29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>463</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>464</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="E32" t="s">
+        <v>451</v>
+      </c>
+      <c r="L32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>465</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="E34" t="s">
+        <v>451</v>
+      </c>
+      <c r="L34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>466</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>468</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>467</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>469</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>470</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>471</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12">
+      <c r="C43" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>472</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12">
+      <c r="C44" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
+        <v>473</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="C47" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>474</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12">
+      <c r="C48" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12">
+      <c r="C49" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" t="s">
+        <v>476</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12">
+      <c r="C50" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12">
+      <c r="C51" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" t="s">
+        <v>477</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12">
+      <c r="C52" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" t="s">
+        <v>478</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12">
+      <c r="C53" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" t="s">
+        <v>451</v>
+      </c>
+      <c r="E53" t="s">
+        <v>451</v>
+      </c>
+      <c r="L53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12">
+      <c r="L54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12">
+      <c r="L55" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12">
+      <c r="L56" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12">
+      <c r="L57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12">
+      <c r="L58" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12">
+      <c r="L59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12">
+      <c r="L60" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12">
+      <c r="L61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12">
+      <c r="L62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12">
+      <c r="L63" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12">
+      <c r="L64" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="12:12">
+      <c r="L65" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="12:12">
+      <c r="L66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="12:12">
+      <c r="L67" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="12:12">
+      <c r="L68" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="69" spans="12:12">
+      <c r="L69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="12:12">
+      <c r="L70" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="71" spans="12:12">
+      <c r="L71" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" spans="12:12">
+      <c r="L72" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73" spans="12:12">
+      <c r="L73" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="74" spans="12:12">
+      <c r="L74" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75" spans="12:12">
+      <c r="L75" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="12:12">
+      <c r="L76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="12:12">
+      <c r="L77" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="12:12">
+      <c r="L78" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="12:12">
+      <c r="L79" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="80" spans="12:12">
+      <c r="L80" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="83" spans="12:12">
+      <c r="L83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="12:12">
+      <c r="L84" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="12:12">
+      <c r="L86" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="12:12">
+      <c r="L88" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="89" spans="12:12">
+      <c r="L89" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" spans="12:12">
+      <c r="L90" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="12:12">
+      <c r="L91" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="12:12">
+      <c r="L92" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="12:12">
+      <c r="L93" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="94" spans="12:12">
+      <c r="L94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="12:12">
+      <c r="L95" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="12:12">
+      <c r="L96" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="12:12">
+      <c r="L97" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98" spans="12:12">
+      <c r="L98" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="99" spans="12:12">
+      <c r="L99" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="100" spans="12:12">
+      <c r="L100" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="12:12">
+      <c r="L101" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="102" spans="12:12">
+      <c r="L102" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="103" spans="12:12">
+      <c r="L103" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="12:12">
+      <c r="L104" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="105" spans="12:12">
+      <c r="L105" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="12:12">
+      <c r="L106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="12:12">
+      <c r="L107" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="12:12">
+      <c r="L108" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="109" spans="12:12">
+      <c r="L109" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="12:12">
+      <c r="L110" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="12:12">
+      <c r="L111" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="12:12">
+      <c r="L112" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="113" spans="12:12">
+      <c r="L113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="12:12">
+      <c r="L114" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="115" spans="12:12">
+      <c r="L115" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="116" spans="12:12">
+      <c r="L116" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="12:12">
+      <c r="L117" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="118" spans="12:12">
+      <c r="L118" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="119" spans="12:12">
+      <c r="L119" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="120" spans="12:12">
+      <c r="L120" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="121" spans="12:12">
+      <c r="L121" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="12:12">
+      <c r="L122" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="123" spans="12:12">
+      <c r="L123" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="124" spans="12:12">
+      <c r="L124" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="12:12">
+      <c r="L125" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="126" spans="12:12">
+      <c r="L126" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="127" spans="12:12">
+      <c r="L127" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="12:12">
+      <c r="L128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="12:12">
+      <c r="L129" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="12:12">
+      <c r="L130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" spans="12:12">
+      <c r="L131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="12:12">
+      <c r="L132" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="133" spans="12:12">
+      <c r="L133" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="134" spans="12:12">
+      <c r="L134" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="135" spans="12:12">
+      <c r="L135" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="136" spans="12:12">
+      <c r="L136" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="137" spans="12:12">
+      <c r="L137" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="138" spans="12:12">
+      <c r="L138" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="139" spans="12:12">
+      <c r="L139" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="12:12">
+      <c r="L140" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="141" spans="12:12">
+      <c r="L141" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="142" spans="12:12">
+      <c r="L142" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="143" spans="12:12">
+      <c r="L143" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="144" spans="12:12">
+      <c r="L144" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="12:12">
+      <c r="L145" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="146" spans="12:12">
+      <c r="L146" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="12:12">
+      <c r="L147" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="148" spans="12:12">
+      <c r="L148" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="149" spans="12:12">
+      <c r="L149" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="150" spans="12:12">
+      <c r="L150" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="151" spans="12:12">
+      <c r="L151" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="152" spans="12:12">
+      <c r="L152" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="153" spans="12:12">
+      <c r="L153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="12:12">
+      <c r="L154" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="155" spans="12:12">
+      <c r="L155" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="156" spans="12:12">
+      <c r="L156" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="157" spans="12:12">
+      <c r="L157" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="158" spans="12:12">
+      <c r="L158" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="159" spans="12:12">
+      <c r="L159" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="160" spans="12:12">
+      <c r="L160" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="161" spans="12:12">
+      <c r="L161" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="162" spans="12:12">
+      <c r="L162" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="163" spans="12:12">
+      <c r="L163" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="164" spans="12:12">
+      <c r="L164" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="165" spans="12:12">
+      <c r="L165" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="166" spans="12:12">
+      <c r="L166" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="167" spans="12:12">
+      <c r="L167" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="168" spans="12:12">
+      <c r="L168" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="169" spans="12:12">
+      <c r="L169" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="170" spans="12:12">
+      <c r="L170" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="171" spans="12:12">
+      <c r="L171" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="172" spans="12:12">
+      <c r="L172" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="173" spans="12:12">
+      <c r="L173" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="174" spans="12:12">
+      <c r="L174" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="175" spans="12:12">
+      <c r="L175" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="176" spans="12:12">
+      <c r="L176" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="177" spans="12:12">
+      <c r="L177" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="178" spans="12:12">
+      <c r="L178" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="179" spans="12:12">
+      <c r="L179" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="180" spans="12:12">
+      <c r="L180" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="181" spans="12:12">
+      <c r="L181" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="182" spans="12:12">
+      <c r="L182" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="183" spans="12:12">
+      <c r="L183" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="184" spans="12:12">
+      <c r="L184" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="185" spans="12:12">
+      <c r="L185" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="186" spans="12:12">
+      <c r="L186" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="187" spans="12:12">
+      <c r="L187" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="188" spans="12:12">
+      <c r="L188" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="189" spans="12:12">
+      <c r="L189" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="190" spans="12:12">
+      <c r="L190" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="191" spans="12:12">
+      <c r="L191" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="192" spans="12:12">
+      <c r="L192" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="193" spans="12:12">
+      <c r="L193" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="194" spans="12:12">
+      <c r="L194" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="195" spans="12:12">
+      <c r="L195" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="196" spans="12:12">
+      <c r="L196" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="197" spans="12:12">
+      <c r="L197" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="198" spans="12:12">
+      <c r="L198" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="199" spans="12:12">
+      <c r="L199" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="200" spans="12:12">
+      <c r="L200" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="201" spans="12:12">
+      <c r="L201" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="202" spans="12:12">
+      <c r="L202" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="203" spans="12:12">
+      <c r="L203" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="204" spans="12:12">
+      <c r="L204" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="205" spans="12:12">
+      <c r="L205" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="206" spans="12:12">
+      <c r="L206" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="207" spans="12:12">
+      <c r="L207" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="208" spans="12:12">
+      <c r="L208" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="209" spans="12:12">
+      <c r="L209" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="12:12">
+      <c r="L210" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="211" spans="12:12">
+      <c r="L211" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="212" spans="12:12">
+      <c r="L212" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="213" spans="12:12">
+      <c r="L213" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="214" spans="12:12">
+      <c r="L214" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="215" spans="12:12">
+      <c r="L215" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="216" spans="12:12">
+      <c r="L216" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="217" spans="12:12">
+      <c r="L217" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="218" spans="12:12">
+      <c r="L218" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="219" spans="12:12">
+      <c r="L219" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="220" spans="12:12">
+      <c r="L220" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="221" spans="12:12">
+      <c r="L221" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="222" spans="12:12">
+      <c r="L222" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="223" spans="12:12">
+      <c r="L223" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="224" spans="12:12">
+      <c r="L224" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="225" spans="12:12">
+      <c r="L225" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="226" spans="12:12">
+      <c r="L226" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="227" spans="12:12">
+      <c r="L227" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="228" spans="12:12">
+      <c r="L228" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="229" spans="12:12">
+      <c r="L229" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="230" spans="12:12">
+      <c r="L230" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="231" spans="12:12">
+      <c r="L231" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="232" spans="12:12">
+      <c r="L232" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="233" spans="12:12">
+      <c r="L233" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="234" spans="12:12">
+      <c r="L234" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="235" spans="12:12">
+      <c r="L235" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="236" spans="12:12">
+      <c r="L236" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="237" spans="12:12">
+      <c r="L237" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="238" spans="12:12">
+      <c r="L238" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="239" spans="12:12">
+      <c r="L239" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="240" spans="12:12">
+      <c r="L240" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="241" spans="12:12">
+      <c r="L241" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="242" spans="12:12">
+      <c r="L242" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="243" spans="12:12">
+      <c r="L243" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="244" spans="12:12">
+      <c r="L244" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="245" spans="12:12">
+      <c r="L245" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="246" spans="12:12">
+      <c r="L246" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="247" spans="12:12">
+      <c r="L247" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="248" spans="12:12">
+      <c r="L248" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="249" spans="12:12">
+      <c r="L249" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="250" spans="12:12">
+      <c r="L250" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="251" spans="12:12">
+      <c r="L251" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="252" spans="12:12">
+      <c r="L252" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="253" spans="12:12">
+      <c r="L253" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="254" spans="12:12">
+      <c r="L254" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="255" spans="12:12">
+      <c r="L255" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="256" spans="12:12">
+      <c r="L256" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="257" spans="12:12">
+      <c r="L257" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="258" spans="12:12">
+      <c r="L258" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="259" spans="12:12">
+      <c r="L259" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="260" spans="12:12">
+      <c r="L260" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="261" spans="12:12">
+      <c r="L261" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="262" spans="12:12">
+      <c r="L262" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="263" spans="12:12">
+      <c r="L263" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="264" spans="12:12">
+      <c r="L264" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="265" spans="12:12">
+      <c r="L265" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="266" spans="12:12">
+      <c r="L266" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="267" spans="12:12">
+      <c r="L267" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="268" spans="12:12">
+      <c r="L268" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="269" spans="12:12">
+      <c r="L269" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="270" spans="12:12">
+      <c r="L270" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="271" spans="12:12">
+      <c r="L271" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="272" spans="12:12">
+      <c r="L272" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="273" spans="12:12">
+      <c r="L273" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="12:12">
+      <c r="L274" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="275" spans="12:12">
+      <c r="L275" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="276" spans="12:12">
+      <c r="L276" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="277" spans="12:12">
+      <c r="L277" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="278" spans="12:12">
+      <c r="L278" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="279" spans="12:12">
+      <c r="L279" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="280" spans="12:12">
+      <c r="L280" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="281" spans="12:12">
+      <c r="L281" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="282" spans="12:12">
+      <c r="L282" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="283" spans="12:12">
+      <c r="L283" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="284" spans="12:12">
+      <c r="L284" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="285" spans="12:12">
+      <c r="L285" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="286" spans="12:12">
+      <c r="L286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="12:12">
+      <c r="L287" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="288" spans="12:12">
+      <c r="L288" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="289" spans="12:12">
+      <c r="L289" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="290" spans="12:12">
+      <c r="L290" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="291" spans="12:12">
+      <c r="L291" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="292" spans="12:12">
+      <c r="L292" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="293" spans="12:12">
+      <c r="L293" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="294" spans="12:12">
+      <c r="L294" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="295" spans="12:12">
+      <c r="L295" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="296" spans="12:12">
+      <c r="L296" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="297" spans="12:12">
+      <c r="L297" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="298" spans="12:12">
+      <c r="L298" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="299" spans="12:12">
+      <c r="L299" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="300" spans="12:12">
+      <c r="L300" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="301" spans="12:12">
+      <c r="L301" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="302" spans="12:12">
+      <c r="L302" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="303" spans="12:12">
+      <c r="L303" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="304" spans="12:12">
+      <c r="L304" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="305" spans="12:12">
+      <c r="L305" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="306" spans="12:12">
+      <c r="L306" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="307" spans="12:12">
+      <c r="L307" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="308" spans="12:12">
+      <c r="L308" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="309" spans="12:12">
+      <c r="L309" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="310" spans="12:12">
+      <c r="L310" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="311" spans="12:12">
+      <c r="L311" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="312" spans="12:12">
+      <c r="L312" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="313" spans="12:12">
+      <c r="L313" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="314" spans="12:12">
+      <c r="L314" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="315" spans="12:12">
+      <c r="L315" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="316" spans="12:12">
+      <c r="L316" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="317" spans="12:12">
+      <c r="L317" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="318" spans="12:12">
+      <c r="L318" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="319" spans="12:12">
+      <c r="L319" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="320" spans="12:12">
+      <c r="L320" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="321" spans="12:12">
+      <c r="L321" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="322" spans="12:12">
+      <c r="L322" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="323" spans="12:12">
+      <c r="L323" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="324" spans="12:12">
+      <c r="L324" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="325" spans="12:12">
+      <c r="L325" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="326" spans="12:12">
+      <c r="L326" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="327" spans="12:12">
+      <c r="L327" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="328" spans="12:12">
+      <c r="L328" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="329" spans="12:12">
+      <c r="L329" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="330" spans="12:12">
+      <c r="L330" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="331" spans="12:12">
+      <c r="L331" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="332" spans="12:12">
+      <c r="L332" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="333" spans="12:12">
+      <c r="L333" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="334" spans="12:12">
+      <c r="L334" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="335" spans="12:12">
+      <c r="L335" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="336" spans="12:12">
+      <c r="L336" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="337" spans="12:12">
+      <c r="L337" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="338" spans="12:12">
+      <c r="L338" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="339" spans="12:12">
+      <c r="L339" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="340" spans="12:12">
+      <c r="L340" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="341" spans="12:12">
+      <c r="L341" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="342" spans="12:12">
+      <c r="L342" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="343" spans="12:12">
+      <c r="L343" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="344" spans="12:12">
+      <c r="L344" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="345" spans="12:12">
+      <c r="L345" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="346" spans="12:12">
+      <c r="L346" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="347" spans="12:12">
+      <c r="L347" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="348" spans="12:12">
+      <c r="L348" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="349" spans="12:12">
+      <c r="L349" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="350" spans="12:12">
+      <c r="L350" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="351" spans="12:12">
+      <c r="L351" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="352" spans="12:12">
+      <c r="L352" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="353" spans="12:12">
+      <c r="L353" t="s">
+        <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15590B1-E7AA-4E93-920C-31204111F21D}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13083,7 +19660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8C91BA-05ED-4601-9089-AEEC2A5886C2}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
@@ -15002,8 +21579,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
     <mergeCell ref="F27:P27"/>
     <mergeCell ref="F31:P31"/>
     <mergeCell ref="F36:P36"/>
@@ -15021,6 +21596,8 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15030,7 +21607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCAFACB-CEEA-44BA-880D-6FD711B40614}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -16983,13 +23560,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F40:P40"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="F6:P6"/>
-    <mergeCell ref="F20:P20"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -17003,6 +23578,8 @@
     <mergeCell ref="F27:P27"/>
     <mergeCell ref="F31:P31"/>
     <mergeCell ref="F36:P36"/>
+    <mergeCell ref="F40:P40"/>
+    <mergeCell ref="F20:P20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17012,7 +23589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6888E0B1-B61F-4D75-8219-3D9D24ED9329}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A18" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -18928,8 +25505,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
     <mergeCell ref="F27:P27"/>
     <mergeCell ref="F31:P31"/>
     <mergeCell ref="F36:P36"/>
@@ -18947,6 +25522,8 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18956,7 +25533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369E7862-0AF8-4C0F-80AC-3F7A6DE1A3A2}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A23" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -20872,8 +27449,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
     <mergeCell ref="F27:P27"/>
     <mergeCell ref="F31:P31"/>
     <mergeCell ref="F36:P36"/>
@@ -20891,6 +27466,8 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20900,7 +27477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E550269-274F-4F93-83A6-F78041E786D7}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -22711,7 +29288,7 @@
       </c>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:16" ht="54.5" thickBot="1">
+    <row r="44" spans="1:16" ht="15" thickBot="1">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -22765,7 +29342,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="36.5" thickBot="1">
+    <row r="45" spans="1:16" ht="15" thickBot="1">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -22819,7 +29396,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="54.5" thickBot="1">
+    <row r="46" spans="1:16" ht="15" thickBot="1">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -22898,7 +29475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0792732C-9B6B-4A39-88D5-D746B468A43B}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -24747,7 +31324,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="36.5" thickBot="1">
+    <row r="44" spans="1:16" ht="15" thickBot="1">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -24801,7 +31378,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="54.5" thickBot="1">
+    <row r="45" spans="1:16" ht="15" thickBot="1">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -24885,7 +31462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754FC415-D691-470A-ADD5-D93CB65367F1}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -26734,7 +33311,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="36.5" thickBot="1">
+    <row r="44" spans="1:16" ht="15" thickBot="1">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -26788,7 +33365,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="54.5" thickBot="1">
+    <row r="45" spans="1:16" ht="15" thickBot="1">
       <c r="A45" t="s">
         <v>39</v>
       </c>
